--- a/data/processed/tables.xlsx
+++ b/data/processed/tables.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="prevalenceOverall" sheetId="2" r:id="rId1"/>
-    <sheet name="prevalenceControl" sheetId="5" r:id="rId2"/>
+    <sheet name="prevalenceControl" sheetId="6" r:id="rId2"/>
     <sheet name="prevalenceByExposure" sheetId="3" r:id="rId3"/>
     <sheet name="incidence" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E24" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <autoFilter ref="A1:E24"/>
   <tableColumns count="5">
     <tableColumn id="1" name="outcomeCategory"/>
@@ -1715,7 +1715,7 @@
         <v>0.41089337050000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1.3167973381</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>5.2667380000000002E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.59131469940000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>2.7890890737</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>9.6489245151999992</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>0.78193508739999995</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2.3395093952999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>0.5166670324</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2.2403606433999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
         <v>1.0533476700000001E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.50945870419999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
         <v>0.1071781255</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>6.4751344796000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>0.33751014940000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.71426132009999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>1.9059448309</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.37718808939999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>1.8541552371000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.44446179139999997</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>1.6941341700000001E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1.59917342E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>4.8453992799999998E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.12609075820000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>2.2383638000000001E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7.2965675199999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,7 +1936,7 @@
         <v>6.9345387999999999E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>9.9745054E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>2.7211481000000001E-3</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2.8622493700000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>0.53711953300000004</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>4.7482440263000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>4.7400645000000002E-3</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1.9461127299999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>3.71305054E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.14164881830000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
         <v>0.35015032149999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1.3724160475</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,7 +2038,7 @@
         <v>0.99506243279999995</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>2.7895005320999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>4.1980293620999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.37876015810000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>0.91360354629999996</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.14126935339999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>0.16230332019999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.31891312589999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/tables.xlsx
+++ b/data/processed/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="prevalenceOverall" sheetId="2" r:id="rId1"/>
@@ -181,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +312,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -658,7 +665,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,6 +674,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,17 +725,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -813,6 +812,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -853,9 +863,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="timeWindow" dataDxfId="2"/>
-    <tableColumn id="4" name="MPCD Non-AS cohort" dataDxfId="1"/>
-    <tableColumn id="5" name="Medicare Non-AS cohort" dataDxfId="0"/>
+    <tableColumn id="3" name="timeWindow" dataDxfId="22"/>
+    <tableColumn id="4" name="MPCD Non-AS cohort" dataDxfId="21"/>
+    <tableColumn id="5" name="Medicare Non-AS cohort" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -867,36 +877,36 @@
   <tableColumns count="12">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="timeWindow" dataDxfId="22"/>
-    <tableColumn id="4" name="MPCD TNF" dataDxfId="21"/>
-    <tableColumn id="5" name="MPCD DMARD" dataDxfId="20"/>
-    <tableColumn id="6" name="MPCD NSAID or no exposure" dataDxfId="19"/>
-    <tableColumn id="7" name="Marketscan TNF" dataDxfId="18"/>
-    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="17"/>
-    <tableColumn id="9" name="Marketscan NSAID or no exposure" dataDxfId="16"/>
-    <tableColumn id="10" name="Medicare TNF" dataDxfId="15"/>
-    <tableColumn id="11" name="Medicare DMARD" dataDxfId="14"/>
-    <tableColumn id="12" name="Medicare NSAID or no exposure" dataDxfId="13"/>
+    <tableColumn id="3" name="timeWindow" dataDxfId="19"/>
+    <tableColumn id="4" name="MPCD TNF" dataDxfId="18"/>
+    <tableColumn id="5" name="MPCD DMARD" dataDxfId="17"/>
+    <tableColumn id="6" name="MPCD NSAID or no exposure" dataDxfId="16"/>
+    <tableColumn id="7" name="Marketscan TNF" dataDxfId="15"/>
+    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="14"/>
+    <tableColumn id="9" name="Marketscan NSAID or no exposure" dataDxfId="13"/>
+    <tableColumn id="10" name="Medicare TNF" dataDxfId="12"/>
+    <tableColumn id="11" name="Medicare DMARD" dataDxfId="11"/>
+    <tableColumn id="12" name="Medicare NSAID or no exposure" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K24" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K24" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:K24"/>
   <tableColumns count="11">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="MPCD TNF" dataDxfId="11"/>
-    <tableColumn id="4" name="MPCD DMARD" dataDxfId="10"/>
-    <tableColumn id="5" name="MPCD NSAID or no exposure" dataDxfId="9"/>
-    <tableColumn id="6" name="Marketscan TNF" dataDxfId="8"/>
-    <tableColumn id="7" name="Marketscan DMARD" dataDxfId="7"/>
-    <tableColumn id="8" name="Marketscan NSAID or no exposure" dataDxfId="6"/>
-    <tableColumn id="9" name="Medicare TNF" dataDxfId="5"/>
-    <tableColumn id="10" name="Medicare DMARD" dataDxfId="4"/>
-    <tableColumn id="11" name="Medicare NSAID or no exposure" dataDxfId="3"/>
+    <tableColumn id="3" name="MPCD TNF" dataDxfId="8"/>
+    <tableColumn id="4" name="MPCD DMARD" dataDxfId="7"/>
+    <tableColumn id="5" name="MPCD NSAID or no exposure" dataDxfId="6"/>
+    <tableColumn id="6" name="Marketscan TNF" dataDxfId="5"/>
+    <tableColumn id="7" name="Marketscan DMARD" dataDxfId="4"/>
+    <tableColumn id="8" name="Marketscan NSAID or no exposure" dataDxfId="3"/>
+    <tableColumn id="9" name="Medicare TNF" dataDxfId="2"/>
+    <tableColumn id="10" name="Medicare DMARD" dataDxfId="1"/>
+    <tableColumn id="11" name="Medicare NSAID or no exposure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,7 +1178,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,13 +1222,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.34458993799999998</v>
+        <v>0.53333333329999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.38016618689999998</v>
+        <v>0.56751794359999996</v>
       </c>
       <c r="F2" s="1">
-        <v>1.8660723875</v>
+        <v>1.5674814027999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.195514039</v>
+        <v>0.62593890839999999</v>
       </c>
       <c r="F3" s="1">
-        <v>1.337128128</v>
+        <v>1.8552957846</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,13 +1262,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>2.8486101539000002</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>2.0094498451999998</v>
+        <v>3.4885661826000001</v>
       </c>
       <c r="F4" s="1">
-        <v>10.7856299</v>
+        <v>9.7591215018999993</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,13 +1282,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>1.5621410521000001</v>
+        <v>1.9</v>
       </c>
       <c r="E5" s="1">
-        <v>0.65171346330000002</v>
+        <v>1.3269904857000001</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0355493502000002</v>
+        <v>4.8662770103000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,13 +1302,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>0.45945325059999997</v>
+        <v>0.63333333329999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.76576331939999998</v>
+        <v>1.2602236687999999</v>
       </c>
       <c r="F6" s="1">
-        <v>3.9147245194</v>
+        <v>4.5120439249000004</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,13 +1322,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2972662500000001E-2</v>
+        <v>0.46666666670000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.391028078</v>
+        <v>0.58420964779999995</v>
       </c>
       <c r="F7" s="1">
-        <v>0.8457738159</v>
+        <v>1.7888770811000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,13 +1342,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>0.13783597519999999</v>
+        <v>5.2</v>
       </c>
       <c r="E8" s="1">
-        <v>4.518546679</v>
+        <v>6.8936738441000003</v>
       </c>
       <c r="F8" s="1">
-        <v>13.513586081</v>
+        <v>19.416400992</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,13 +1362,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>0.98782448889999996</v>
+        <v>1.0666666667</v>
       </c>
       <c r="E9" s="1">
-        <v>0.63542062669999999</v>
+        <v>1.0181939576000001</v>
       </c>
       <c r="F9" s="1">
-        <v>2.4487165717999999</v>
+        <v>2.4442082891000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,13 +1382,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>3.9742706179999998</v>
+        <v>4.2666666666999999</v>
       </c>
       <c r="E10" s="1">
-        <v>2.5579753434999999</v>
+        <v>3.5720247036999999</v>
       </c>
       <c r="F10" s="1">
-        <v>5.0558479217999999</v>
+        <v>4.7954303932000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,13 +1402,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0905122904</v>
+        <v>2.4666666667000001</v>
       </c>
       <c r="E11" s="1">
-        <v>1.4935100201</v>
+        <v>2.6122517108999999</v>
       </c>
       <c r="F11" s="1">
-        <v>2.7977660831</v>
+        <v>2.6656039674000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,13 +1422,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>2.2972662500000001E-2</v>
+        <v>3.3333333299999997E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>5.4309455000000001E-3</v>
+        <v>2.50375563E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>8.0549887200000003E-2</v>
+        <v>7.0846617099999995E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,13 +1442,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>0.18378130030000001</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>3.8016618699999997E-2</v>
+        <v>0.14187948589999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2282246805</v>
+        <v>0.22582359190000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1.08618911E-2</v>
+        <v>1.6691704200000001E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1933197294</v>
+        <v>0.15054906130000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>5.4309455000000001E-3</v>
+        <v>1.6691704200000001E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>2.9534958699999999E-2</v>
+        <v>1.3283740699999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,13 +1502,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>6.6666666700000002E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>5.9740400800000003E-2</v>
+        <v>0.11684192960000001</v>
       </c>
       <c r="F16" s="1">
-        <v>0.46181935349999997</v>
+        <v>0.65533120789999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,13 +1522,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>0.96485182629999999</v>
+        <v>1.2666666666999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.90153695759999997</v>
+        <v>1.3520280420999999</v>
       </c>
       <c r="F17" s="1">
-        <v>9.1316722157000001</v>
+        <v>3.1925256818999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,13 +1542,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>4.5945325100000003E-2</v>
+        <v>0.1333333333</v>
       </c>
       <c r="E18" s="1">
-        <v>2.7154727600000001E-2</v>
+        <v>5.00751127E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>0.16109977449999999</v>
+        <v>0.2081119377</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,13 +1562,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>0.25269928780000001</v>
+        <v>0.16666666669999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1792212024</v>
+        <v>0.2420297112</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0337235527999999</v>
+        <v>0.85015940489999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,13 +1582,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>1.7229496899000001</v>
+        <v>2.4</v>
       </c>
       <c r="E20" s="1">
-        <v>1.4500624558999999</v>
+        <v>2.2450342179999998</v>
       </c>
       <c r="F20" s="1">
-        <v>6.7447105574000004</v>
+        <v>7.3193411265000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,13 +1602,13 @@
         <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>2.2513209281000002</v>
+        <v>2.9333333332999998</v>
       </c>
       <c r="E21" s="1">
-        <v>1.5043719111</v>
+        <v>1.8527791687999999</v>
       </c>
       <c r="F21" s="1">
-        <v>4.5993985608000001</v>
+        <v>4.4854764434999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,13 +1622,13 @@
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>2.4351022282999999</v>
+        <v>2.5</v>
       </c>
       <c r="E22" s="1">
-        <v>0.65171346330000002</v>
+        <v>2.7040560840999999</v>
       </c>
       <c r="F22" s="1">
-        <v>2.5319514553000002</v>
+        <v>3.7902940135000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,13 +1642,13 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>3.8134619802</v>
+        <v>3.6666666666999999</v>
       </c>
       <c r="E23" s="1">
-        <v>1.2871340899999999</v>
+        <v>4.0560841262</v>
       </c>
       <c r="F23" s="1">
-        <v>5.1686177639000004</v>
+        <v>4.9902585901999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,13 +1662,13 @@
         <v>14</v>
       </c>
       <c r="D24" s="1">
-        <v>5.8350562830000001</v>
+        <v>7.0333333332999999</v>
       </c>
       <c r="E24" s="1">
-        <v>1.6564383859</v>
+        <v>7.5863795694</v>
       </c>
       <c r="F24" s="1">
-        <v>4.9108581247999998</v>
+        <v>4.0161176053999998</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1712,10 +1724,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>0.41089337050000002</v>
+        <v>0.58109679830000005</v>
       </c>
       <c r="E2" s="1">
-        <v>1.3167973381</v>
+        <v>1.1851230252</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,7 +1744,7 @@
         <v>5.2667380000000002E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.59131469940000003</v>
+        <v>0.74158279140000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1746,10 +1758,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>2.7890890737</v>
+        <v>3.8708771313999999</v>
       </c>
       <c r="E4" s="1">
-        <v>9.6489245151999992</v>
+        <v>8.8094939944000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1763,10 +1775,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>0.78193508739999995</v>
+        <v>0.88437314840000003</v>
       </c>
       <c r="E5" s="1">
-        <v>2.3395093952999999</v>
+        <v>2.6727337680000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1780,10 +1792,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>0.5166670324</v>
+        <v>0.67300138249999997</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2403606433999999</v>
+        <v>2.2508230322</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,10 +1809,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0533476700000001E-2</v>
+        <v>0.22181746359999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.50945870419999995</v>
+        <v>0.99913102539999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,10 +1826,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1071781255</v>
+        <v>2.2366082205</v>
       </c>
       <c r="E8" s="1">
-        <v>6.4751344796000003</v>
+        <v>8.8800744618999996</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,10 +1843,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>0.33751014940000001</v>
+        <v>0.41958348880000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.71426132009999999</v>
+        <v>0.85737378860000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,10 +1860,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>1.9059448309</v>
+        <v>2.1527793016999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.37718808939999998</v>
+        <v>0.34303625030000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,10 +1877,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>1.8541552371000001</v>
+        <v>2.0025894797000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.44446179139999997</v>
+        <v>0.37480288150000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,10 +1894,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>1.6941341700000001E-2</v>
+        <v>2.1944743100000001E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>1.59917342E-2</v>
+        <v>1.3064433699999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,10 +1911,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>4.8453992799999998E-2</v>
+        <v>7.5314358400000003E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.12609075820000001</v>
+        <v>0.1033770748</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,10 +1928,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>2.2383638000000001E-2</v>
+        <v>4.3011696500000002E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>7.2965675199999996E-2</v>
+        <v>6.02264972E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1933,10 +1945,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>6.9345387999999999E-3</v>
+        <v>7.7245496E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>9.9745054E-3</v>
+        <v>8.1855994999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,10 +1962,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>2.7211481000000001E-3</v>
+        <v>1.67657838E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>2.8622493700000001E-2</v>
+        <v>4.16327181E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1967,10 +1979,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>0.53711953300000004</v>
+        <v>0.65123219730000004</v>
       </c>
       <c r="E17" s="1">
-        <v>4.7482440263000001</v>
+        <v>1.2652443239</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1984,10 +1996,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>4.7400645000000002E-3</v>
+        <v>6.9345387999999999E-3</v>
       </c>
       <c r="E18" s="1">
-        <v>1.9461127299999999E-2</v>
+        <v>1.8160104900000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,10 +2013,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>3.71305054E-2</v>
+        <v>3.9061642799999997E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.14164881830000001</v>
+        <v>8.2289669400000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,10 +2030,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>0.35015032149999997</v>
+        <v>0.4532906142</v>
       </c>
       <c r="E20" s="1">
-        <v>1.3724160475</v>
+        <v>1.1173614398</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2035,10 +2047,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>0.99506243279999995</v>
+        <v>1.1884395093</v>
       </c>
       <c r="E21" s="1">
-        <v>2.7895005320999999</v>
+        <v>2.5481066600000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,10 +2064,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>4.1980293620999998</v>
+        <v>4.6324474972000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.37876015810000002</v>
+        <v>0.97132167079999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,10 +2081,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>0.91360354629999996</v>
+        <v>1.0316662643000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.14126935339999999</v>
+        <v>0.1586163193</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,10 +2098,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1">
-        <v>0.16230332019999999</v>
+        <v>0.21804296779999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.31891312589999998</v>
+        <v>0.23266617989999999</v>
       </c>
     </row>
   </sheetData>
@@ -2177,25 +2189,25 @@
         <v>0.20790020789999999</v>
       </c>
       <c r="F2" s="1">
-        <v>0.38565368300000002</v>
+        <v>0.50134978789999995</v>
       </c>
       <c r="G2" s="1">
-        <v>0.1557362866</v>
+        <v>0.13843225470000001</v>
       </c>
       <c r="H2" s="1">
-        <v>0.58679706600000003</v>
+        <v>0.78239608800000005</v>
       </c>
       <c r="I2" s="1">
-        <v>0.46274435739999997</v>
+        <v>0.61384455569999996</v>
       </c>
       <c r="J2" s="1">
-        <v>0.79271377970000001</v>
+        <v>0.43852251640000001</v>
       </c>
       <c r="K2" s="1">
-        <v>2.0219526284999998</v>
+        <v>1.6368187944999999</v>
       </c>
       <c r="L2" s="1">
-        <v>2.0787076028000002</v>
+        <v>1.7418268126000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2218,22 +2230,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.2076483821</v>
+        <v>0.51912095520000001</v>
       </c>
       <c r="H3" s="1">
-        <v>0.14669926650000001</v>
+        <v>0.48899755499999997</v>
       </c>
       <c r="I3" s="1">
-        <v>0.19831901029999999</v>
+        <v>0.80271980359999995</v>
       </c>
       <c r="J3" s="1">
-        <v>0.9445100354</v>
+        <v>1.2143700454999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0.94357789329999997</v>
+        <v>1.2901983439</v>
       </c>
       <c r="L3" s="1">
-        <v>1.5044789832000001</v>
+        <v>2.2012097083</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2247,31 +2259,31 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>2.1110242377000001</v>
+        <v>2.5801407349000001</v>
       </c>
       <c r="E4" s="1">
         <v>1.4553014553000001</v>
       </c>
       <c r="F4" s="1">
-        <v>3.4708831468999999</v>
+        <v>4.2421905128999997</v>
       </c>
       <c r="G4" s="1">
-        <v>0.76137740089999995</v>
+        <v>1.7823152794999999</v>
       </c>
       <c r="H4" s="1">
-        <v>2.8850855746000001</v>
+        <v>4.1564792176000003</v>
       </c>
       <c r="I4" s="1">
-        <v>2.5214845594000002</v>
+        <v>4.0041552554999997</v>
       </c>
       <c r="J4" s="1">
-        <v>6.6115702478999996</v>
+        <v>5.7007927138000003</v>
       </c>
       <c r="K4" s="1">
-        <v>8.9543616407000002</v>
+        <v>7.6834199883999998</v>
       </c>
       <c r="L4" s="1">
-        <v>12.097082919</v>
+        <v>10.539009264000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2285,31 +2297,31 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>1.7982799061999999</v>
+        <v>1.7200938233</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0395010394999999</v>
+        <v>0.62370062370000001</v>
       </c>
       <c r="F5" s="1">
-        <v>1.5426147320000001</v>
+        <v>1.5811801002999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.51912095520000001</v>
+        <v>0.81328949650000004</v>
       </c>
       <c r="H5" s="1">
-        <v>0.63569682149999995</v>
+        <v>0.880195599</v>
       </c>
       <c r="I5" s="1">
-        <v>0.72716970439999995</v>
+        <v>1.3315704977</v>
       </c>
       <c r="J5" s="1">
-        <v>2.4793388429999998</v>
+        <v>2.9347276100999999</v>
       </c>
       <c r="K5" s="1">
-        <v>3.3891777393</v>
+        <v>3.6972848064999999</v>
       </c>
       <c r="L5" s="1">
-        <v>4.5172651405000002</v>
+        <v>4.9536788914000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2329,25 +2341,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.65561126110000001</v>
+        <v>0.88700347089999998</v>
       </c>
       <c r="G6" s="1">
-        <v>0.50181692330000005</v>
+        <v>0.70946530539999997</v>
       </c>
       <c r="H6" s="1">
-        <v>0.92909535450000003</v>
+        <v>1.1246943764999999</v>
       </c>
       <c r="I6" s="1">
-        <v>0.87826990270000005</v>
+        <v>1.4637831712</v>
       </c>
       <c r="J6" s="1">
-        <v>2.158880081</v>
+        <v>2.4456063417</v>
       </c>
       <c r="K6" s="1">
-        <v>2.8114769882999999</v>
+        <v>2.9847872136000002</v>
       </c>
       <c r="L6" s="1">
-        <v>4.5325779037</v>
+        <v>4.6091417196000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2361,31 +2373,31 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.31274433149999997</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3.85653683E-2</v>
+        <v>0.50134978789999995</v>
       </c>
       <c r="G7" s="1">
-        <v>0.1557362866</v>
+        <v>0.19034435020000001</v>
       </c>
       <c r="H7" s="1">
-        <v>9.7799511000000006E-2</v>
+        <v>0.14669926650000001</v>
       </c>
       <c r="I7" s="1">
-        <v>0.57606950609999996</v>
+        <v>0.66106336759999995</v>
       </c>
       <c r="J7" s="1">
-        <v>0.26986001009999999</v>
+        <v>0.48912126830000002</v>
       </c>
       <c r="K7" s="1">
-        <v>0.59695744269999995</v>
+        <v>0.90506450989999998</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0259551335999999</v>
+        <v>1.6767475691</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2399,31 +2411,31 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>7.8186082899999995E-2</v>
+        <v>1.0164190773999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1.2474012474</v>
       </c>
       <c r="F8" s="1">
-        <v>0.19282684150000001</v>
+        <v>5.5919784033999997</v>
       </c>
       <c r="G8" s="1">
-        <v>2.9070773490000001</v>
+        <v>3.5300224951999999</v>
       </c>
       <c r="H8" s="1">
-        <v>3.4718826406000001</v>
+        <v>4.8410757946</v>
       </c>
       <c r="I8" s="1">
-        <v>5.6001511001999997</v>
+        <v>7.1678156578000003</v>
       </c>
       <c r="J8" s="1">
-        <v>7.1850227693999997</v>
+        <v>9.1415078427999994</v>
       </c>
       <c r="K8" s="1">
-        <v>11.226651261000001</v>
+        <v>13.807047948999999</v>
       </c>
       <c r="L8" s="1">
-        <v>15.404639767000001</v>
+        <v>19.018451880000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2446,22 +2458,22 @@
         <v>0.80987273429999995</v>
       </c>
       <c r="G9" s="1">
-        <v>0.74407336909999999</v>
+        <v>1.1766741650999999</v>
       </c>
       <c r="H9" s="1">
-        <v>0.78239608800000005</v>
+        <v>1.5158924204999999</v>
       </c>
       <c r="I9" s="1">
-        <v>0.54773821889999996</v>
+        <v>0.95382000190000005</v>
       </c>
       <c r="J9" s="1">
-        <v>3.3057851239999998</v>
+        <v>2.7154663518</v>
       </c>
       <c r="K9" s="1">
-        <v>3.1388407472000002</v>
+        <v>2.7729636049000002</v>
       </c>
       <c r="L9" s="1">
-        <v>2.1169895107999999</v>
+        <v>2.2662889518</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2478,28 +2490,28 @@
         <v>5.7857701328999998</v>
       </c>
       <c r="E10" s="1">
-        <v>3.7422037422000001</v>
+        <v>3.9501039500999999</v>
       </c>
       <c r="F10" s="1">
-        <v>3.1237948322000002</v>
+        <v>3.3937524102999999</v>
       </c>
       <c r="G10" s="1">
-        <v>3.7030628135999999</v>
+        <v>5.5372901886000001</v>
       </c>
       <c r="H10" s="1">
-        <v>2.6894865526</v>
+        <v>3.8630806845999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1.9076400038000001</v>
+        <v>2.6820285201999998</v>
       </c>
       <c r="J10" s="1">
-        <v>8.3656603136999994</v>
+        <v>8.3825265643000009</v>
       </c>
       <c r="K10" s="1">
-        <v>6.4124783362000004</v>
+        <v>6.5857885615000002</v>
       </c>
       <c r="L10" s="1">
-        <v>4.0349131000999998</v>
+        <v>3.9162391853999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2513,31 +2525,31 @@
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>2.8928850664999999</v>
+        <v>3.0492572322</v>
       </c>
       <c r="E11" s="1">
-        <v>2.4948024948</v>
+        <v>2.2869022869000002</v>
       </c>
       <c r="F11" s="1">
-        <v>1.6197454685999999</v>
+        <v>1.8511376784</v>
       </c>
       <c r="G11" s="1">
-        <v>2.1803080117999998</v>
+        <v>3.6165426543999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1.5158924204999999</v>
+        <v>2.5916870416000002</v>
       </c>
       <c r="I11" s="1">
-        <v>1.1143639625999999</v>
+        <v>2.1059590141000002</v>
       </c>
       <c r="J11" s="1">
-        <v>4.1659639062</v>
+        <v>3.8623713947999998</v>
       </c>
       <c r="K11" s="1">
-        <v>3.8128249567000001</v>
+        <v>3.601001348</v>
       </c>
       <c r="L11" s="1">
-        <v>2.2854299058</v>
+        <v>2.1093331291999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2560,22 +2572,22 @@
         <v>3.85653683E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>3.4608063699999997E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>9.4437623999999998E-3</v>
+        <v>2.8331287199999999E-2</v>
       </c>
       <c r="J12" s="1">
         <v>0.1011975038</v>
       </c>
       <c r="K12" s="1">
-        <v>1.9256691699999998E-2</v>
+        <v>3.8513383399999997E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>8.8048388300000002E-2</v>
+        <v>7.2735625100000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2595,25 +2607,25 @@
         <v>0.20790020789999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1156961049</v>
+        <v>3.85653683E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>5.1912095499999998E-2</v>
+        <v>0.1211282229</v>
       </c>
       <c r="H13" s="1">
-        <v>9.7799511000000006E-2</v>
+        <v>4.8899755500000003E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>1.88875248E-2</v>
+        <v>9.4437623900000003E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>0.18552875699999999</v>
+        <v>0.1180637544</v>
       </c>
       <c r="K13" s="1">
-        <v>0.25033699209999999</v>
+        <v>0.192566917</v>
       </c>
       <c r="L13" s="1">
-        <v>0.2335196386</v>
+        <v>0.18758134909999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2627,31 +2639,31 @@
         <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.15637216579999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.20790020789999999</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>6.9216127399999994E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>4.8899755500000003E-2</v>
       </c>
       <c r="I14" s="1">
         <v>1.88875248E-2</v>
       </c>
       <c r="J14" s="1">
-        <v>0.18552875699999999</v>
+        <v>0.20239500760000001</v>
       </c>
       <c r="K14" s="1">
-        <v>0.25033699209999999</v>
+        <v>0.23108030039999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.1837531583</v>
+        <v>0.16461220430000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1.7304031800000001E-2</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>9.4437623999999998E-3</v>
+        <v>1.88875248E-2</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>5.7770075099999998E-2</v>
+        <v>3.8513383399999997E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>3.0625526399999999E-2</v>
+        <v>1.9140954000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2709,25 +2721,25 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>7.7130736599999999E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>6.9216127399999994E-2</v>
+        <v>0.103824191</v>
       </c>
       <c r="H16" s="1">
-        <v>4.8899755500000003E-2</v>
+        <v>0.14669926650000001</v>
       </c>
       <c r="I16" s="1">
-        <v>5.6662574399999999E-2</v>
+        <v>0.1038813863</v>
       </c>
       <c r="J16" s="1">
-        <v>0.28672626080000002</v>
+        <v>0.43852251640000001</v>
       </c>
       <c r="K16" s="1">
-        <v>0.8280377431</v>
+        <v>1.0783747351999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.42875736930000002</v>
+        <v>0.62016690910000005</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2747,25 +2759,25 @@
         <v>0.41580041579999999</v>
       </c>
       <c r="F17" s="1">
-        <v>1.1955264173</v>
+        <v>1.5426147320000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0.67485724170000005</v>
+        <v>0.86520159200000002</v>
       </c>
       <c r="H17" s="1">
-        <v>0.83129584349999996</v>
+        <v>0.73349633250000001</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0388138633999999</v>
+        <v>1.3315704977</v>
       </c>
       <c r="J17" s="1">
-        <v>6.5441052453999999</v>
+        <v>2.4456063417</v>
       </c>
       <c r="K17" s="1">
-        <v>9.3972655498000002</v>
+        <v>3.3891777393</v>
       </c>
       <c r="L17" s="1">
-        <v>9.6661817625000008</v>
+        <v>3.0931781639999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2785,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>7.7130736599999999E-2</v>
+        <v>0.1542614732</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>9.7799511000000006E-2</v>
+        <v>0.14669926650000001</v>
       </c>
       <c r="I18" s="1">
-        <v>2.8331287199999999E-2</v>
+        <v>3.7775049599999999E-2</v>
       </c>
       <c r="J18" s="1">
         <v>0.1349300051</v>
@@ -2803,7 +2815,7 @@
         <v>1.9256691699999998E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>0.19523773059999999</v>
+        <v>0.17226858589999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2823,25 +2835,25 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.34708831470000001</v>
+        <v>0.2313922098</v>
       </c>
       <c r="G19" s="1">
-        <v>8.6520159200000002E-2</v>
+        <v>0.1557362866</v>
       </c>
       <c r="H19" s="1">
-        <v>0.24449877749999999</v>
+        <v>0.19559902200000001</v>
       </c>
       <c r="I19" s="1">
-        <v>0.21720653509999999</v>
+        <v>0.42496930779999997</v>
       </c>
       <c r="J19" s="1">
-        <v>0.50598751900000005</v>
+        <v>0.25299375950000003</v>
       </c>
       <c r="K19" s="1">
-        <v>0.69324090120000004</v>
+        <v>0.4043905257</v>
       </c>
       <c r="L19" s="1">
-        <v>1.2211928643000001</v>
+        <v>0.74649720539999997</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2855,31 +2867,31 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>1.2509773259999999</v>
+        <v>1.3291634089</v>
       </c>
       <c r="E20" s="1">
-        <v>0.20790020789999999</v>
+        <v>0.41580041579999999</v>
       </c>
       <c r="F20" s="1">
-        <v>2.2367913613999999</v>
+        <v>2.6610104126</v>
       </c>
       <c r="G20" s="1">
-        <v>0.43260079600000001</v>
+        <v>0.57103305069999999</v>
       </c>
       <c r="H20" s="1">
-        <v>0.880195599</v>
+        <v>0.83129584349999996</v>
       </c>
       <c r="I20" s="1">
-        <v>2.1154027764999999</v>
+        <v>2.7103598073000001</v>
       </c>
       <c r="J20" s="1">
-        <v>3.0021926126</v>
+        <v>1.8384213189</v>
       </c>
       <c r="K20" s="1">
-        <v>4.0053918736999998</v>
+        <v>2.6766801463999998</v>
       </c>
       <c r="L20" s="1">
-        <v>8.1387336344999994</v>
+        <v>7.0630120205000004</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2893,31 +2905,31 @@
         <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>1.7982799061999999</v>
+        <v>2.0328381547999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.62370062370000001</v>
+        <v>0.83160083159999998</v>
       </c>
       <c r="F21" s="1">
-        <v>2.7767065175000001</v>
+        <v>3.3166216736999998</v>
       </c>
       <c r="G21" s="1">
-        <v>0.96902578299999997</v>
+        <v>1.0036338467000001</v>
       </c>
       <c r="H21" s="1">
-        <v>0.880195599</v>
+        <v>0.97799510999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>1.9170837662</v>
+        <v>2.0681839645000002</v>
       </c>
       <c r="J21" s="1">
-        <v>3.3732501264999999</v>
+        <v>2.9009951088000001</v>
       </c>
       <c r="K21" s="1">
-        <v>3.3891777393</v>
+        <v>3.023300597</v>
       </c>
       <c r="L21" s="1">
-        <v>5.1182910956000001</v>
+        <v>4.6512518183999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2931,31 +2943,31 @@
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>4.1438623925</v>
+        <v>4.3002345581999997</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2474012474</v>
+        <v>1.4553014553000001</v>
       </c>
       <c r="F22" s="1">
-        <v>1.8125723101</v>
+        <v>1.8897030467</v>
       </c>
       <c r="G22" s="1">
-        <v>0.84789756009999995</v>
+        <v>4.3606160235000004</v>
       </c>
       <c r="H22" s="1">
-        <v>0.880195599</v>
+        <v>3.5696821515999999</v>
       </c>
       <c r="I22" s="1">
-        <v>0.50051940689999996</v>
+        <v>2.0681839645000002</v>
       </c>
       <c r="J22" s="1">
-        <v>5.0430089390999999</v>
+        <v>7.0163602631000002</v>
       </c>
       <c r="K22" s="1">
-        <v>3.5047178895000002</v>
+        <v>4.8334296168000002</v>
       </c>
       <c r="L22" s="1">
-        <v>1.7686241482</v>
+        <v>3.1352882628000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2969,31 +2981,31 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>6.4112587959000003</v>
+        <v>6.4894448787999996</v>
       </c>
       <c r="E23" s="1">
         <v>5.4054054053999998</v>
       </c>
       <c r="F23" s="1">
-        <v>2.2367913613999999</v>
+        <v>2.4296182029</v>
       </c>
       <c r="G23" s="1">
-        <v>2.2322201072999999</v>
+        <v>7.0773490223</v>
       </c>
       <c r="H23" s="1">
-        <v>2.1026894866000001</v>
+        <v>6.4058679707000001</v>
       </c>
       <c r="I23" s="1">
-        <v>0.61384455569999996</v>
+        <v>2.4364906979000001</v>
       </c>
       <c r="J23" s="1">
-        <v>10.963062911</v>
+        <v>10.524540395000001</v>
       </c>
       <c r="K23" s="1">
-        <v>8.5114577316000002</v>
+        <v>8.1263238976000007</v>
       </c>
       <c r="L23" s="1">
-        <v>3.1888829339</v>
+        <v>3.1199754996000002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3007,31 +3019,31 @@
         <v>14</v>
       </c>
       <c r="D24" s="1">
-        <v>7.1931196247000004</v>
+        <v>8.4440969507000005</v>
       </c>
       <c r="E24" s="1">
-        <v>5.8212058212000004</v>
+        <v>7.2765072765000003</v>
       </c>
       <c r="F24" s="1">
-        <v>5.1677593521</v>
+        <v>6.2475896645000004</v>
       </c>
       <c r="G24" s="1">
-        <v>1.8515314067999999</v>
+        <v>7.7522062640999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1.5158924204999999</v>
+        <v>6.7970660147000004</v>
       </c>
       <c r="I24" s="1">
-        <v>1.57710832</v>
+        <v>7.3094720937000002</v>
       </c>
       <c r="J24" s="1">
-        <v>7.9777365492000003</v>
+        <v>6.8814302581</v>
       </c>
       <c r="K24" s="1">
-        <v>5.3148469092999999</v>
+        <v>4.9874831504000001</v>
       </c>
       <c r="L24" s="1">
-        <v>4.1344460608000002</v>
+        <v>3.4989663885</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3105,32 +3117,32 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.199837686022797</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4">
+        <v>0.199832219349909</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.23473348671573899</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.378282591856552</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.20845834991290199</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.44623563134333399</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.47789423226328798</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.57871529449720904</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1.3088684183872701</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1.32386100446903</v>
+      <c r="E2" s="4">
+        <v>0.568624093161466</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.193559472379359</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.84000533555261003</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.60930308762173702</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.42923990021297798</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.01003629954654</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.05334994712931</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,32 +3152,32 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.25323732263440002</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.334155188892932</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.248995437566537</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.95866648867177795</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.2558451382217899</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1.57985040808803</v>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.77854969142105301</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.12004661112502</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.88248874936965005</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.3387416272313599</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.49690731751229</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.0293005894546501</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,32 +3187,32 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.76179866169122</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.9082199742750801</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.7003366931357702</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.88580031240188895</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.6899415997991198</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.7409242907527598</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.0429047441944297</v>
-      </c>
-      <c r="J4" s="3">
-        <v>6.4726341304499</v>
-      </c>
-      <c r="K4" s="3">
-        <v>7.98088482103097</v>
+      <c r="C4" s="4">
+        <v>2.1769781947612001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.90845677559217</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.4566849184515203</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.7914897844478499</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.4660097817851101</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.9824493203214599</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.3481870035132699</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.2676025030870903</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.9631326485990099</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3210,32 +3222,32 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
-        <v>1.27558147659721</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.46942473781654698</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.58293042830762</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.58336609578406196</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.50189168393316297</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.80663813781050098</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1.8949475804643201</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2.5105009044701498</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3.3777330196617599</v>
+      <c r="C5" s="4">
+        <v>1.1416496900139901</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.23421418815415601</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.7028711779258101</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.720355592372663</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.95093734542454</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.2633299487122001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.8165467400203701</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.7853294543234899</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.4329391735427102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3245,32 +3257,32 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.333474544552049</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.56959182760508997</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.49367832075386298</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.50293522314499495</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.926842542224664</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1.97740883539269</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.5756877441396901</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3.7504000424909298</v>
+      <c r="C6" s="4">
+        <v>0.26590420168441897</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.87599335556038604</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.68839393595356102</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.78184128322069801</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.61646622316778</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.8662433677736201</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.4667774477869799</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3.6166155568780001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3280,32 +3292,32 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="4">
+        <v>0.333094399080474</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.60622595299520399</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.20823288528171199</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.166859299118016</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.56466924052338696</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.38367371673141898</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.69031266860868501</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.92297824264946604</v>
+      <c r="G7" s="4">
+        <v>0.27822890258755301</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.641219241200775</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.69085221427402099</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.21041904856959</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.54680962741757</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3315,32 +3327,32 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
-        <v>6.6426361761388594E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.22691103823750799</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.6218658680261302</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3.3170439172387698</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5.4127844078581298</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7.0916867247319404</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9.2414914325723796</v>
-      </c>
-      <c r="K8" s="3">
-        <v>12.6649422418553</v>
+      <c r="C8" s="4">
+        <v>1.0707414939875299</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.94263537882487503</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6.3755078125423799</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.0941940429840198</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.2133020454954799</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6.7097043671604304</v>
+      </c>
+      <c r="I8" s="4">
+        <v>8.7727157240418396</v>
+      </c>
+      <c r="J8" s="4">
+        <v>11.7405893691617</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15.9136332761502</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3350,32 +3362,32 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.87036337775196904</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.1858535223359601</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.45511372131222899</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.31295825264687599</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.66949556419590806</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.33557409985459202</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1.8159243048781599</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2.0685756854997601</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.70913803526758</v>
+      <c r="C9" s="4">
+        <v>0.87016878333895697</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.42343091341174</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.53118994443084</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.869781750862202</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.3493211833641401</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.79445563777636397</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.7052814988686</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.1392041949896901</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.9707752691948599</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3386,31 +3398,31 @@
         <v>25</v>
       </c>
       <c r="C10" s="3">
-        <v>4.61618445972909</v>
+        <v>4.4778606797157403</v>
       </c>
       <c r="D10" s="3">
-        <v>3.1226160726127299</v>
+        <v>3.6124499713076901</v>
       </c>
       <c r="E10" s="3">
-        <v>2.5578898111748898</v>
+        <v>2.9142566259146401</v>
       </c>
       <c r="F10" s="3">
-        <v>2.7719740271384601</v>
+        <v>4.2877074940102302</v>
       </c>
       <c r="G10" s="3">
-        <v>2.4014934485678001</v>
+        <v>3.6400026576387399</v>
       </c>
       <c r="H10" s="3">
-        <v>1.4041482320584999</v>
+        <v>2.32122883725481</v>
       </c>
       <c r="I10" s="3">
-        <v>3.6017388493187998</v>
+        <v>3.5745853115247499</v>
       </c>
       <c r="J10" s="3">
-        <v>3.4433239652162899</v>
+        <v>3.4157761145875498</v>
       </c>
       <c r="K10" s="3">
-        <v>2.25484630890824</v>
+        <v>2.17202272519989</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3421,31 +3433,31 @@
         <v>26</v>
       </c>
       <c r="C11" s="3">
-        <v>2.46390987581636</v>
+        <v>2.3968737285047101</v>
       </c>
       <c r="D11" s="3">
-        <v>0.70625656627314104</v>
+        <v>0.94544748591506</v>
       </c>
       <c r="E11" s="3">
-        <v>1.2676876250303399</v>
+        <v>1.5826343261287701</v>
       </c>
       <c r="F11" s="3">
-        <v>1.51066273528743</v>
+        <v>2.5641464942484502</v>
       </c>
       <c r="G11" s="3">
-        <v>1.4045419097480301</v>
+        <v>2.3931465262600198</v>
       </c>
       <c r="H11" s="3">
-        <v>0.84972261989946196</v>
+        <v>1.6806598221109501</v>
       </c>
       <c r="I11" s="3">
-        <v>2.2132052533405902</v>
+        <v>1.96362322541428</v>
       </c>
       <c r="J11" s="3">
-        <v>2.1985967479991499</v>
+        <v>1.82926600231501</v>
       </c>
       <c r="K11" s="3">
-        <v>1.4943206234175801</v>
+        <v>1.3454657207184899</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3462,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>3.7695093394736999E-2</v>
+        <v>0.113117851095447</v>
       </c>
       <c r="F12" s="3">
-        <v>1.48571758633863E-2</v>
+        <v>2.9716201126503399E-2</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -3477,10 +3489,10 @@
         <v>5.8846381339530698E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>1.1033123233253001E-2</v>
+        <v>2.2067486330649699E-2</v>
       </c>
       <c r="K12" s="3">
-        <v>5.6022145322827399E-2</v>
+        <v>4.3276841521477101E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3497,25 +3509,25 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>0.113270916742335</v>
+        <v>7.5433549289351101E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>4.4585437824572798E-2</v>
+        <v>0.11892401845893499</v>
       </c>
       <c r="G13" s="3">
-        <v>5.56663887798498E-2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>2.1599421649885701E-2</v>
+        <v>7.5619239273229694E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>0.213921795569534</v>
+        <v>0.15476582494164701</v>
       </c>
       <c r="J13" s="3">
-        <v>9.94968331115125E-2</v>
+        <v>0.12152613413010099</v>
       </c>
       <c r="K13" s="3">
-        <v>0.21180450246948801</v>
+        <v>0.14783991263971899</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3526,7 +3538,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>0.133108358041265</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -3535,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>4.4598467269653802E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>5.55793106500534E-2</v>
+        <v>0.11125274705137</v>
       </c>
       <c r="H14" s="3">
-        <v>4.3217129246641998E-2</v>
+        <v>4.3217359357073298E-2</v>
       </c>
       <c r="I14" s="3">
-        <v>0.15465607485046501</v>
+        <v>0.13990170644387001</v>
       </c>
       <c r="J14" s="3">
-        <v>7.7285674514398897E-2</v>
+        <v>0.121605142480009</v>
       </c>
       <c r="K14" s="3">
-        <v>0.104495754471888</v>
+        <v>7.8974405116236199E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3567,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>3.7699100795415601E-2</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -3576,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1.0799704438432201E-2</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>3.3116946114196001E-2</v>
+        <v>2.2075482132579202E-2</v>
       </c>
       <c r="K15" s="3">
-        <v>1.7808038848618601E-2</v>
+        <v>1.2719141847029301E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3602,25 +3614,25 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>0.113101855150691</v>
       </c>
       <c r="F16" s="3">
-        <v>4.4581991194593697E-2</v>
+        <v>7.4329356890362103E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>5.5592422686766202E-2</v>
+        <v>0.111243767759112</v>
       </c>
       <c r="H16" s="3">
-        <v>5.40113781010979E-2</v>
+        <v>8.6470477522697403E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>0.31785738932281199</v>
+        <v>0.39258072967534302</v>
       </c>
       <c r="J16" s="3">
-        <v>0.71283157828896504</v>
+        <v>0.848777087084577</v>
       </c>
       <c r="K16" s="3">
-        <v>0.327559402895924</v>
+        <v>0.44387645323584102</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3631,31 +3643,31 @@
         <v>34</v>
       </c>
       <c r="C17" s="3">
-        <v>0.94161386374287204</v>
+        <v>0.80640561667576205</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>1.53014094889717</v>
+        <v>1.8459672375388001</v>
       </c>
       <c r="F17" s="3">
-        <v>0.55356119556179495</v>
+        <v>0.74788809914764698</v>
       </c>
       <c r="G17" s="3">
-        <v>0.61635545273691705</v>
+        <v>0.84100593749575103</v>
       </c>
       <c r="H17" s="3">
-        <v>0.88289958664742696</v>
+        <v>1.27959690567872</v>
       </c>
       <c r="I17" s="3">
-        <v>5.29175742208262</v>
+        <v>1.9909472855188799</v>
       </c>
       <c r="J17" s="3">
-        <v>6.9133031464033996</v>
+        <v>2.48196022669512</v>
       </c>
       <c r="K17" s="3">
-        <v>7.7682158790993103</v>
+        <v>2.4211944754385502</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3672,25 +3684,25 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>7.5432926135706693E-2</v>
+        <v>0.15102023939891801</v>
       </c>
       <c r="F18" s="3">
-        <v>1.4858191226154E-2</v>
+        <v>2.9728681523857999E-2</v>
       </c>
       <c r="G18" s="3">
         <v>5.5563246262028902E-2</v>
       </c>
       <c r="H18" s="3">
-        <v>2.1602027663102201E-2</v>
+        <v>1.0799231857484701E-2</v>
       </c>
       <c r="I18" s="3">
-        <v>8.8318965466400903E-2</v>
+        <v>8.8328434256348995E-2</v>
       </c>
       <c r="J18" s="3">
-        <v>5.5203485867465298E-2</v>
+        <v>1.1033379863308801E-2</v>
       </c>
       <c r="K18" s="3">
-        <v>0.10960832093067201</v>
+        <v>9.1729966902309598E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3707,25 +3719,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>0.30229076813176198</v>
+        <v>0.26432640317288097</v>
       </c>
       <c r="F19" s="3">
-        <v>5.9459444060668699E-2</v>
+        <v>0.178409699170266</v>
       </c>
       <c r="G19" s="3">
-        <v>0.16690784462618</v>
+        <v>0.22279934182051001</v>
       </c>
       <c r="H19" s="3">
-        <v>0.11886960926183</v>
+        <v>0.303148152209118</v>
       </c>
       <c r="I19" s="3">
-        <v>0.39231960887858502</v>
+        <v>0.199026718127711</v>
       </c>
       <c r="J19" s="3">
-        <v>0.44489417700380801</v>
+        <v>0.27719711633097199</v>
       </c>
       <c r="K19" s="3">
-        <v>0.66373364357728404</v>
+        <v>0.39981767207990898</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,31 +3748,31 @@
         <v>39</v>
       </c>
       <c r="C20" s="3">
-        <v>0.93894256721603297</v>
+        <v>0.87167836983163505</v>
       </c>
       <c r="D20" s="3">
         <v>0.23457971535713401</v>
       </c>
       <c r="E20" s="3">
-        <v>1.5392703584318499</v>
+        <v>1.73432499423454</v>
       </c>
       <c r="F20" s="3">
-        <v>0.37282825626995297</v>
+        <v>0.44750390225569397</v>
       </c>
       <c r="G20" s="3">
-        <v>0.55754931697329502</v>
+        <v>0.72433866390355295</v>
       </c>
       <c r="H20" s="3">
-        <v>1.8290475612963599</v>
+        <v>2.33761772599992</v>
       </c>
       <c r="I20" s="3">
-        <v>2.28581311077162</v>
+        <v>1.73155267528233</v>
       </c>
       <c r="J20" s="3">
-        <v>3.05850466841768</v>
+        <v>2.3519135854594402</v>
       </c>
       <c r="K20" s="3">
-        <v>4.6231991808102499</v>
+        <v>4.0015302825660397</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3771,31 +3783,31 @@
         <v>40</v>
       </c>
       <c r="C21" s="3">
-        <v>1.0039949055684101</v>
+        <v>1.27531190215597</v>
       </c>
       <c r="D21" s="3">
-        <v>0.70515666931054999</v>
+        <v>0.94111735944976704</v>
       </c>
       <c r="E21" s="3">
-        <v>2.7606357837682798</v>
+        <v>3.28658564019505</v>
       </c>
       <c r="F21" s="3">
-        <v>1.16100719905574</v>
+        <v>1.22137472335314</v>
       </c>
       <c r="G21" s="3">
-        <v>1.0651074200819499</v>
+        <v>1.1219974473012</v>
       </c>
       <c r="H21" s="3">
-        <v>1.6032832633988301</v>
+        <v>1.77165389914768</v>
       </c>
       <c r="I21" s="3">
-        <v>2.8631107271485998</v>
+        <v>2.5672618125446802</v>
       </c>
       <c r="J21" s="3">
-        <v>3.49419541812957</v>
+        <v>3.2732168689597301</v>
       </c>
       <c r="K21" s="3">
-        <v>3.85139542118704</v>
+        <v>3.58333856588711</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3806,31 +3818,31 @@
         <v>42</v>
       </c>
       <c r="C22" s="3">
-        <v>3.3645494946850598</v>
+        <v>3.3643976991277702</v>
       </c>
       <c r="D22" s="3">
         <v>0.95254860540341002</v>
       </c>
       <c r="E22" s="3">
-        <v>1.53923143781344</v>
+        <v>1.5791779764702001</v>
       </c>
       <c r="F22" s="3">
-        <v>0.80946179932002005</v>
+        <v>3.4117161995325902</v>
       </c>
       <c r="G22" s="3">
-        <v>0.61258702233310602</v>
+        <v>3.1129277443025698</v>
       </c>
       <c r="H22" s="3">
-        <v>0.37920315945493799</v>
+        <v>1.6678087201937699</v>
       </c>
       <c r="I22" s="3">
-        <v>2.4827384043501102</v>
+        <v>3.5217316641355301</v>
       </c>
       <c r="J22" s="3">
-        <v>1.9542254843192699</v>
+        <v>3.2213043935477401</v>
       </c>
       <c r="K22" s="3">
-        <v>1.11881673019318</v>
+        <v>1.9206388310503</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3841,31 +3853,31 @@
         <v>43</v>
       </c>
       <c r="C23" s="3">
-        <v>5.13292778018441</v>
+        <v>5.1296986045486497</v>
       </c>
       <c r="D23" s="3">
-        <v>5.1336925238698097</v>
+        <v>5.1346891505937098</v>
       </c>
       <c r="E23" s="3">
-        <v>1.6462101241651801</v>
+        <v>1.80350473548023</v>
       </c>
       <c r="F23" s="3">
-        <v>1.69512876314428</v>
+        <v>5.1968411714934399</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9156458681611599</v>
+        <v>6.3875794992928903</v>
       </c>
       <c r="H23" s="3">
-        <v>0.50998794156819705</v>
+        <v>1.88791682743921</v>
       </c>
       <c r="I23" s="3">
-        <v>5.02581853014535</v>
+        <v>4.5802669542494696</v>
       </c>
       <c r="J23" s="3">
-        <v>4.26648271557612</v>
+        <v>3.96984772542935</v>
       </c>
       <c r="K23" s="3">
-        <v>1.6859741939100601</v>
+        <v>1.61963304547565</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3876,37 +3888,38 @@
         <v>44</v>
       </c>
       <c r="C24" s="3">
-        <v>4.3578705504282302</v>
+        <v>4.9506340411815204</v>
       </c>
       <c r="D24" s="3">
-        <v>5.2184251346544004</v>
+        <v>6.5494006814312797</v>
       </c>
       <c r="E24" s="3">
-        <v>3.87079297489367</v>
+        <v>4.8590180879910303</v>
       </c>
       <c r="F24" s="3">
-        <v>0.87052016707761803</v>
+        <v>5.5916124074261697</v>
       </c>
       <c r="G24" s="3">
-        <v>1.1766533204524701</v>
+        <v>6.5726537883388803</v>
       </c>
       <c r="H24" s="3">
-        <v>0.75042587333091004</v>
+        <v>5.7568108157590201</v>
       </c>
       <c r="I24" s="3">
-        <v>4.1105495219205803</v>
+        <v>3.6850793054761901</v>
       </c>
       <c r="J24" s="3">
-        <v>3.1441706011939798</v>
+        <v>2.7617160593643102</v>
       </c>
       <c r="K24" s="3">
-        <v>2.4526474333583601</v>
+        <v>2.0773834163729701</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/processed/tables.xlsx
+++ b/data/processed/tables.xlsx
@@ -181,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -665,7 +671,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,6 +683,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3058,7 +3067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3222,31 +3233,31 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1.1416496900139901</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>0.23421418815415601</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>1.7028711779258101</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0.720355592372663</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.95093734542454</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>1.2633299487122001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>1.8165467400203701</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>2.7853294543234899</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>3.4329391735427102</v>
       </c>
     </row>
@@ -3257,31 +3268,31 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>0.26590420168441897</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.87599335556038604</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0.68839393595356102</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>0.78184128322069801</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>1.61646622316778</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>1.8662433677736201</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>2.4667774477869799</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>3.6166155568780001</v>
       </c>
     </row>
@@ -3292,32 +3303,32 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>0.333094399080474</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>0.60622595299520399</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0.20823288528171199</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>0.27822890258755301</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.641219241200775</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="5">
+        <v>0.630349805535103</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.69085221427402099</v>
       </c>
-      <c r="J7" s="4">
-        <v>1.21041904856959</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.54680962741757</v>
+      <c r="J7" s="5">
+        <v>1.1992114647865399</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.52860557927139</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/processed/tables.xlsx
+++ b/data/processed/tables.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="prevalenceOverall" sheetId="9" r:id="rId1"/>
-    <sheet name="prevalenceControl" sheetId="6" r:id="rId2"/>
+    <sheet name="prevalenceControl" sheetId="10" r:id="rId2"/>
     <sheet name="prevalenceByExposure" sheetId="8" r:id="rId3"/>
     <sheet name="incidence" sheetId="7" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="491">
   <si>
     <t>outcomeCategory</t>
   </si>
@@ -1417,15 +1417,90 @@
   </si>
   <si>
     <t>0.6 (0.4-0.7)</t>
+  </si>
+  <si>
+    <t>0.2 (0.2-0.2)</t>
+  </si>
+  <si>
+    <t>1.0 (1.0-1.1)</t>
+  </si>
+  <si>
+    <t>1.0 (1.0-1.0)</t>
+  </si>
+  <si>
+    <t>4.6 (4.6-4.7)</t>
+  </si>
+  <si>
+    <t>2.5 (2.5-2.6)</t>
+  </si>
+  <si>
+    <t>1.2 (1.2-1.2)</t>
+  </si>
+  <si>
+    <t>1.1 (1.1-1.1)</t>
+  </si>
+  <si>
+    <t>0.5 (0.4-0.5)</t>
+  </si>
+  <si>
+    <t>0.1 (0.1-0.1)</t>
+  </si>
+  <si>
+    <t>1.3 (1.2-1.3)</t>
+  </si>
+  <si>
+    <t>0.7 (0.6-0.7)</t>
+  </si>
+  <si>
+    <t>0.4 (0.4-0.4)</t>
+  </si>
+  <si>
+    <t>2.0 (2.0-2.0)</t>
+  </si>
+  <si>
+    <t>0.3 (0.3-0.4)</t>
+  </si>
+  <si>
+    <t>2.2 (2.1-2.2)</t>
+  </si>
+  <si>
+    <t>0.9 (0.8-0.9)</t>
+  </si>
+  <si>
+    <t>8.9 (8.8-8.9)</t>
+  </si>
+  <si>
+    <t>2.2 (2.2-2.3)</t>
+  </si>
+  <si>
+    <t>2.3 (2.2-2.3)</t>
+  </si>
+  <si>
+    <t>0.7 (0.7-0.7)</t>
+  </si>
+  <si>
+    <t>2.7 (2.6-2.7)</t>
+  </si>
+  <si>
+    <t>0.9 (0.9-0.9)</t>
+  </si>
+  <si>
+    <t>8.8 (8.8-8.9)</t>
+  </si>
+  <si>
+    <t>3.9 (3.8-3.9)</t>
+  </si>
+  <si>
+    <t>0.7 (0.7-0.8)</t>
+  </si>
+  <si>
+    <t>0.6 (0.6-0.6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1903,11 +1978,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1956,7 +2028,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="29">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2039,11 +2111,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2069,9 +2136,9 @@
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
     <tableColumn id="3" name="timeWindow"/>
-    <tableColumn id="4" name="MPCD AS cohort" dataDxfId="2"/>
-    <tableColumn id="5" name="Marketscan AS cohort" dataDxfId="1"/>
-    <tableColumn id="6" name="Medicare AS cohort" dataDxfId="0"/>
+    <tableColumn id="4" name="MPCD AS cohort" dataDxfId="28"/>
+    <tableColumn id="5" name="Marketscan AS cohort" dataDxfId="27"/>
+    <tableColumn id="6" name="Medicare AS cohort" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2083,9 +2150,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="timeWindow" dataDxfId="29"/>
-    <tableColumn id="4" name="MPCD Non-AS cohort" dataDxfId="28"/>
-    <tableColumn id="5" name="Medicare Non-AS cohort" dataDxfId="27"/>
+    <tableColumn id="3" name="timeWindow"/>
+    <tableColumn id="4" name="MPCD Non-AS cohort" dataDxfId="1"/>
+    <tableColumn id="5" name="Medicare Non-AS cohort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2098,18 +2165,18 @@
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
     <tableColumn id="3" name="timeWindow"/>
-    <tableColumn id="4" name="MPCD TNF" dataDxfId="14"/>
-    <tableColumn id="5" name="MPCD DMARD" dataDxfId="13"/>
-    <tableColumn id="6" name="MPCD NSAID" dataDxfId="12"/>
-    <tableColumn id="7" name="MPCD No exposure" dataDxfId="11"/>
-    <tableColumn id="8" name="Marketscan TNF" dataDxfId="10"/>
-    <tableColumn id="9" name="Marketscan DMARD" dataDxfId="9"/>
-    <tableColumn id="10" name="Marketscan NSAID" dataDxfId="8"/>
-    <tableColumn id="11" name="Marketscan No exposure" dataDxfId="7"/>
-    <tableColumn id="12" name="Medicare TNF" dataDxfId="6"/>
-    <tableColumn id="13" name="Medicare DMARD" dataDxfId="5"/>
-    <tableColumn id="14" name="Medicare NSAID" dataDxfId="4"/>
-    <tableColumn id="15" name="Medicare No exposure" dataDxfId="3"/>
+    <tableColumn id="4" name="MPCD TNF" dataDxfId="25"/>
+    <tableColumn id="5" name="MPCD DMARD" dataDxfId="24"/>
+    <tableColumn id="6" name="MPCD NSAID" dataDxfId="23"/>
+    <tableColumn id="7" name="MPCD No exposure" dataDxfId="22"/>
+    <tableColumn id="8" name="Marketscan TNF" dataDxfId="21"/>
+    <tableColumn id="9" name="Marketscan DMARD" dataDxfId="20"/>
+    <tableColumn id="10" name="Marketscan NSAID" dataDxfId="19"/>
+    <tableColumn id="11" name="Marketscan No exposure" dataDxfId="18"/>
+    <tableColumn id="12" name="Medicare TNF" dataDxfId="17"/>
+    <tableColumn id="13" name="Medicare DMARD" dataDxfId="16"/>
+    <tableColumn id="14" name="Medicare NSAID" dataDxfId="15"/>
+    <tableColumn id="15" name="Medicare No exposure" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2121,18 +2188,18 @@
   <tableColumns count="14">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="MPCD TNF" dataDxfId="26"/>
-    <tableColumn id="4" name="MPCD DMARD" dataDxfId="25"/>
-    <tableColumn id="5" name="MPCD NSAID" dataDxfId="24"/>
-    <tableColumn id="6" name="MPCD No exposure" dataDxfId="23"/>
-    <tableColumn id="7" name="Marketscan TNF" dataDxfId="22"/>
-    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="21"/>
-    <tableColumn id="9" name="Marketscan NSAID" dataDxfId="20"/>
-    <tableColumn id="10" name="Marketscan No exposure" dataDxfId="19"/>
-    <tableColumn id="11" name="Medicare TNF" dataDxfId="18"/>
-    <tableColumn id="12" name="Medicare DMARD" dataDxfId="17"/>
-    <tableColumn id="13" name="Medicare NSAID" dataDxfId="16"/>
-    <tableColumn id="14" name="Medicare No exposure" dataDxfId="15"/>
+    <tableColumn id="3" name="MPCD TNF" dataDxfId="13"/>
+    <tableColumn id="4" name="MPCD DMARD" dataDxfId="12"/>
+    <tableColumn id="5" name="MPCD NSAID" dataDxfId="11"/>
+    <tableColumn id="6" name="MPCD No exposure" dataDxfId="10"/>
+    <tableColumn id="7" name="Marketscan TNF" dataDxfId="9"/>
+    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="8"/>
+    <tableColumn id="9" name="Marketscan NSAID" dataDxfId="7"/>
+    <tableColumn id="10" name="Marketscan No exposure" dataDxfId="6"/>
+    <tableColumn id="11" name="Medicare TNF" dataDxfId="5"/>
+    <tableColumn id="12" name="Medicare DMARD" dataDxfId="4"/>
+    <tableColumn id="13" name="Medicare NSAID" dataDxfId="3"/>
+    <tableColumn id="14" name="Medicare No exposure" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2410,9 +2477,9 @@
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,13 +2492,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2445,13 +2512,13 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>463</v>
       </c>
     </row>
@@ -2465,13 +2532,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -2485,13 +2552,13 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>458</v>
       </c>
     </row>
@@ -2505,13 +2572,13 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -2525,13 +2592,13 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>431</v>
       </c>
     </row>
@@ -2545,13 +2612,13 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>451</v>
       </c>
     </row>
@@ -2565,13 +2632,13 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -2585,13 +2652,13 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -2605,13 +2672,13 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -2625,13 +2692,13 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -2645,13 +2712,13 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2665,13 +2732,13 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>437</v>
       </c>
     </row>
@@ -2685,13 +2752,13 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -2705,13 +2772,13 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2725,13 +2792,13 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -2745,13 +2812,13 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2765,13 +2832,13 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>437</v>
       </c>
     </row>
@@ -2785,13 +2852,13 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>436</v>
       </c>
     </row>
@@ -2805,13 +2872,13 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>433</v>
       </c>
     </row>
@@ -2825,13 +2892,13 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>431</v>
       </c>
     </row>
@@ -2845,13 +2912,13 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>429</v>
       </c>
     </row>
@@ -2865,13 +2932,13 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2885,13 +2952,13 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -2907,15 +2974,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -2927,7 +2992,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2944,14 +3009,14 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.58109679830000005</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.1851230252</v>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,14 +3026,14 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.2667380000000002E-4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.74158279140000005</v>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2978,14 +3043,14 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.8708771313999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.8094939944000004</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2995,14 +3060,14 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.88437314840000003</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.6727337680000001</v>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3012,14 +3077,14 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.67300138249999997</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.2508230322</v>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3029,14 +3094,14 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.22181746359999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.99913102539999998</v>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,14 +3111,14 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.2366082205</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8.8800744618999996</v>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,14 +3128,14 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.41958348880000002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.85737378860000002</v>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,14 +3145,14 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.1527793016999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.34303625030000001</v>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,14 +3162,14 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.0025894797000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.37480288150000002</v>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3114,14 +3179,14 @@
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.1944743100000001E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.3064433699999999E-2</v>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,14 +3196,14 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.5314358400000003E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.1033770748</v>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3148,14 +3213,14 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4.3011696500000002E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6.02264972E-2</v>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,14 +3230,14 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7.7245496E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8.1855994999999997E-3</v>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3182,14 +3247,14 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.67657838E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4.16327181E-2</v>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,14 +3264,14 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.65123219730000004</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.2652443239</v>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3216,14 +3281,14 @@
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.9345387999999999E-3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.8160104900000001E-2</v>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3233,14 +3298,14 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.9061642799999997E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8.2289669400000001E-2</v>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,14 +3315,14 @@
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.4532906142</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.1173614398</v>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,14 +3332,14 @@
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.1884395093</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.5481066600000002</v>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,14 +3349,14 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4.6324474972000003</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.97132167079999998</v>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,14 +3366,14 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.0316662643000001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.1586163193</v>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3318,14 +3383,14 @@
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.21804296779999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.23266617989999999</v>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3347,18 +3412,18 @@
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3371,40 +3436,40 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3418,40 +3483,40 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3465,40 +3530,40 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3512,40 +3577,40 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3559,40 +3624,40 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3606,40 +3671,40 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3653,40 +3718,40 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3700,40 +3765,40 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3747,40 +3812,40 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3794,40 +3859,40 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3841,40 +3906,40 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3888,40 +3953,40 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3935,40 +4000,40 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3982,40 +4047,40 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4029,40 +4094,40 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4076,40 +4141,40 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4123,40 +4188,40 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4170,40 +4235,40 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4217,40 +4282,40 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4264,40 +4329,40 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4311,40 +4376,40 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4358,40 +4423,40 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4405,40 +4470,40 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4452,40 +4517,40 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4507,18 +4572,18 @@
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4528,40 +4593,40 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4572,40 +4637,40 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4616,40 +4681,40 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4660,40 +4725,40 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4704,40 +4769,40 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4748,40 +4813,40 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4792,40 +4857,40 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4836,40 +4901,40 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4880,40 +4945,40 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4924,40 +4989,40 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4968,40 +5033,40 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5012,40 +5077,40 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5056,40 +5121,40 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5100,40 +5165,40 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5144,40 +5209,40 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5188,40 +5253,40 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5232,40 +5297,40 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5276,40 +5341,40 @@
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5320,40 +5385,40 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5364,40 +5429,40 @@
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5408,40 +5473,40 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/data/processed/tables.xlsx
+++ b/data/processed/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="prevalenceOverall" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="492">
   <si>
     <t>outcomeCategory</t>
   </si>
@@ -618,42 +618,12 @@
     <t>4.82 (3.75-6.11)</t>
   </si>
   <si>
-    <t>2.16 (1.95-2.38)</t>
-  </si>
-  <si>
-    <t>1.92 (1.73-2.13)</t>
-  </si>
-  <si>
-    <t>2.19 (1.89-2.52)</t>
-  </si>
-  <si>
-    <t>1.74 (1.53-1.99)</t>
-  </si>
-  <si>
     <t>0.92 (0.67-1.23)</t>
   </si>
   <si>
-    <t>0.70 (0.47-1.00)</t>
-  </si>
-  <si>
-    <t>1.33 (0.85-1.98)</t>
-  </si>
-  <si>
-    <t>0.93 (0.71-1.19)</t>
-  </si>
-  <si>
-    <t>0.64 (0.33-1.13)</t>
-  </si>
-  <si>
     <t>0.52 (0.14-1.33)</t>
   </si>
   <si>
-    <t>1.42 (0.52-3.10)</t>
-  </si>
-  <si>
-    <t>0.87 (0.46-1.49)</t>
-  </si>
-  <si>
     <t>24.18 (23.39-24.98)</t>
   </si>
   <si>
@@ -1495,6 +1465,39 @@
   </si>
   <si>
     <t>0.6 (0.6-0.6)</t>
+  </si>
+  <si>
+    <t>0.60 (0.27-1.14)</t>
+  </si>
+  <si>
+    <t>0.47 (0.06-1.70)</t>
+  </si>
+  <si>
+    <t>0.32 (0.12-0.70)</t>
+  </si>
+  <si>
+    <t>0.66 (0.48-0.88)</t>
+  </si>
+  <si>
+    <t>0.94 (0.55-1.51)</t>
+  </si>
+  <si>
+    <t>0.40 (0.23-0.63)</t>
+  </si>
+  <si>
+    <t>0.63 (0.43-0.90)</t>
+  </si>
+  <si>
+    <t>1.24 (1.06-1.45)</t>
+  </si>
+  <si>
+    <t>1.53 (1.29-1.81)</t>
+  </si>
+  <si>
+    <t>1.49 (1.32-1.67)</t>
+  </si>
+  <si>
+    <t>1.66 (1.48-1.86)</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2154,8 @@
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
     <tableColumn id="3" name="timeWindow"/>
-    <tableColumn id="4" name="MPCD Non-AS cohort" dataDxfId="1"/>
-    <tableColumn id="5" name="Medicare Non-AS cohort" dataDxfId="0"/>
+    <tableColumn id="4" name="MPCD Non-AS cohort" dataDxfId="25"/>
+    <tableColumn id="5" name="Medicare Non-AS cohort" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2165,18 +2168,18 @@
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
     <tableColumn id="3" name="timeWindow"/>
-    <tableColumn id="4" name="MPCD TNF" dataDxfId="25"/>
-    <tableColumn id="5" name="MPCD DMARD" dataDxfId="24"/>
-    <tableColumn id="6" name="MPCD NSAID" dataDxfId="23"/>
-    <tableColumn id="7" name="MPCD No exposure" dataDxfId="22"/>
-    <tableColumn id="8" name="Marketscan TNF" dataDxfId="21"/>
-    <tableColumn id="9" name="Marketscan DMARD" dataDxfId="20"/>
-    <tableColumn id="10" name="Marketscan NSAID" dataDxfId="19"/>
-    <tableColumn id="11" name="Marketscan No exposure" dataDxfId="18"/>
-    <tableColumn id="12" name="Medicare TNF" dataDxfId="17"/>
-    <tableColumn id="13" name="Medicare DMARD" dataDxfId="16"/>
-    <tableColumn id="14" name="Medicare NSAID" dataDxfId="15"/>
-    <tableColumn id="15" name="Medicare No exposure" dataDxfId="14"/>
+    <tableColumn id="4" name="MPCD TNF" dataDxfId="23"/>
+    <tableColumn id="5" name="MPCD DMARD" dataDxfId="22"/>
+    <tableColumn id="6" name="MPCD NSAID" dataDxfId="21"/>
+    <tableColumn id="7" name="MPCD No exposure" dataDxfId="20"/>
+    <tableColumn id="8" name="Marketscan TNF" dataDxfId="19"/>
+    <tableColumn id="9" name="Marketscan DMARD" dataDxfId="18"/>
+    <tableColumn id="10" name="Marketscan NSAID" dataDxfId="17"/>
+    <tableColumn id="11" name="Marketscan No exposure" dataDxfId="16"/>
+    <tableColumn id="12" name="Medicare TNF" dataDxfId="15"/>
+    <tableColumn id="13" name="Medicare DMARD" dataDxfId="14"/>
+    <tableColumn id="14" name="Medicare NSAID" dataDxfId="13"/>
+    <tableColumn id="15" name="Medicare No exposure" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2188,18 +2191,18 @@
   <tableColumns count="14">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="MPCD TNF" dataDxfId="13"/>
-    <tableColumn id="4" name="MPCD DMARD" dataDxfId="12"/>
-    <tableColumn id="5" name="MPCD NSAID" dataDxfId="11"/>
-    <tableColumn id="6" name="MPCD No exposure" dataDxfId="10"/>
-    <tableColumn id="7" name="Marketscan TNF" dataDxfId="9"/>
-    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="8"/>
-    <tableColumn id="9" name="Marketscan NSAID" dataDxfId="7"/>
-    <tableColumn id="10" name="Marketscan No exposure" dataDxfId="6"/>
-    <tableColumn id="11" name="Medicare TNF" dataDxfId="5"/>
-    <tableColumn id="12" name="Medicare DMARD" dataDxfId="4"/>
-    <tableColumn id="13" name="Medicare NSAID" dataDxfId="3"/>
-    <tableColumn id="14" name="Medicare No exposure" dataDxfId="2"/>
+    <tableColumn id="3" name="MPCD TNF" dataDxfId="11"/>
+    <tableColumn id="4" name="MPCD DMARD" dataDxfId="10"/>
+    <tableColumn id="5" name="MPCD NSAID" dataDxfId="9"/>
+    <tableColumn id="6" name="MPCD No exposure" dataDxfId="8"/>
+    <tableColumn id="7" name="Marketscan TNF" dataDxfId="7"/>
+    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="6"/>
+    <tableColumn id="9" name="Marketscan NSAID" dataDxfId="5"/>
+    <tableColumn id="10" name="Marketscan No exposure" dataDxfId="4"/>
+    <tableColumn id="11" name="Medicare TNF" dataDxfId="3"/>
+    <tableColumn id="12" name="Medicare DMARD" dataDxfId="2"/>
+    <tableColumn id="13" name="Medicare NSAID" dataDxfId="1"/>
+    <tableColumn id="14" name="Medicare No exposure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2470,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2513,13 +2516,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,13 +2556,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,13 +2576,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2593,13 +2596,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2613,13 +2616,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2633,13 +2636,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,13 +2656,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,13 +2676,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,13 +2696,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,13 +2716,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,13 +2736,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,13 +2756,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,13 +2776,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2793,13 +2796,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,13 +2816,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2833,13 +2836,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,13 +2856,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2873,13 +2876,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,13 +2896,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2913,13 +2916,13 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,13 +2936,13 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,13 +2956,13 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3016,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,10 +3033,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,10 +3050,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,10 +3067,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,10 +3084,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,10 +3101,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3115,10 +3118,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3132,10 +3135,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,10 +3152,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,10 +3169,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3183,10 +3186,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3200,10 +3203,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3217,10 +3220,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3234,10 +3237,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3251,10 +3254,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,10 +3271,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3285,10 +3288,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3302,10 +3305,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3319,10 +3322,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3336,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,10 +3356,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,10 +3373,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,10 +3390,10 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3443,10 +3446,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3455,10 +3458,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -3467,10 +3470,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3484,40 +3487,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3543,28 +3546,28 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3578,40 +3581,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3625,40 +3628,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3672,40 +3675,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3719,40 +3722,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3766,40 +3769,40 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3813,40 +3816,40 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3860,40 +3863,40 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3907,40 +3910,40 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3963,31 +3966,31 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4001,40 +4004,40 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4048,40 +4051,40 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4104,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -4116,19 +4119,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4151,31 +4154,31 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4189,40 +4192,40 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4245,31 +4248,31 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4283,40 +4286,40 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4330,10 +4333,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4342,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -4354,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -4377,10 +4380,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4389,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -4401,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -4424,40 +4427,40 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4471,40 +4474,40 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -4518,40 +4521,40 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4566,7 +4569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4600,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -4612,10 +4615,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -4624,10 +4627,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4638,40 +4641,40 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4682,40 +4685,40 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4726,40 +4729,40 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4770,40 +4773,40 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4814,40 +4817,40 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>481</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>208</v>
+        <v>482</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>204</v>
+        <v>485</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>203</v>
+        <v>486</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>202</v>
+        <v>487</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>201</v>
+        <v>488</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>200</v>
+        <v>489</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>199</v>
+        <v>490</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>198</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/data/processed/tables.xlsx
+++ b/data/processed/tables.xlsx
@@ -15,14 +15,14 @@
     <sheet name="prevalenceOverall" sheetId="9" r:id="rId1"/>
     <sheet name="prevalenceControl" sheetId="10" r:id="rId2"/>
     <sheet name="prevalenceByExposure" sheetId="8" r:id="rId3"/>
-    <sheet name="incidence" sheetId="7" r:id="rId4"/>
+    <sheet name="incidence" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="520">
   <si>
     <t>outcomeCategory</t>
   </si>
@@ -168,192 +168,36 @@
     <t>2.15 (1.94-2.37)</t>
   </si>
   <si>
-    <t>2.63 (2.40-2.87)</t>
-  </si>
-  <si>
-    <t>2.94 (2.59-3.32)</t>
-  </si>
-  <si>
-    <t>4.02 (3.68-4.39)</t>
-  </si>
-  <si>
     <t>6.68 (5.96-7.46)</t>
   </si>
   <si>
-    <t>5.81 (5.10-6.60)</t>
-  </si>
-  <si>
-    <t>6.59 (5.44-7.92)</t>
-  </si>
-  <si>
-    <t>5.94 (5.36-6.58)</t>
-  </si>
-  <si>
     <t>4.98 (3.99-6.14)</t>
   </si>
   <si>
-    <t>5.31 (3.79-7.23)</t>
-  </si>
-  <si>
-    <t>6.53 (4.27-9.57)</t>
-  </si>
-  <si>
-    <t>5.48 (4.33-6.84)</t>
-  </si>
-  <si>
     <t>2.09 (1.89-2.31)</t>
   </si>
   <si>
-    <t>1.51 (1.34-1.70)</t>
-  </si>
-  <si>
-    <t>4.55 (4.11-5.03)</t>
-  </si>
-  <si>
-    <t>5.28 (4.88-5.70)</t>
-  </si>
-  <si>
     <t>2.29 (1.88-2.76)</t>
   </si>
   <si>
-    <t>1.86 (1.47-2.31)</t>
-  </si>
-  <si>
-    <t>6.98 (5.79-8.34)</t>
-  </si>
-  <si>
-    <t>6.04 (5.45-6.68)</t>
-  </si>
-  <si>
     <t>2.24 (1.61-3.03)</t>
   </si>
   <si>
-    <t>1.03 (0.45-2.04)</t>
-  </si>
-  <si>
-    <t>5.11 (3.16-7.81)</t>
-  </si>
-  <si>
-    <t>5.68 (4.51-7.06)</t>
-  </si>
-  <si>
     <t>2.27 (2.06-2.50)</t>
   </si>
   <si>
-    <t>2.05 (1.85-2.26)</t>
-  </si>
-  <si>
-    <t>3.39 (3.01-3.80)</t>
-  </si>
-  <si>
-    <t>3.87 (3.54-4.23)</t>
-  </si>
-  <si>
     <t>1.94 (1.57-2.37)</t>
   </si>
   <si>
-    <t>1.64 (1.28-2.07)</t>
-  </si>
-  <si>
-    <t>3.13 (2.36-4.06)</t>
-  </si>
-  <si>
-    <t>3.77 (3.31-4.27)</t>
-  </si>
-  <si>
     <t>1.69 (1.15-2.40)</t>
   </si>
   <si>
-    <t>1.30 (0.62-2.39)</t>
-  </si>
-  <si>
     <t>0.95 (0.26-2.43)</t>
   </si>
   <si>
-    <t>3.50 (2.61-4.60)</t>
-  </si>
-  <si>
-    <t>2.94 (2.70-3.20)</t>
-  </si>
-  <si>
-    <t>2.99 (2.75-3.25)</t>
-  </si>
-  <si>
-    <t>2.44 (2.13-2.79)</t>
-  </si>
-  <si>
-    <t>2.05 (1.81-2.31)</t>
-  </si>
-  <si>
-    <t>3.78 (3.25-4.37)</t>
-  </si>
-  <si>
-    <t>3.32 (2.79-3.93)</t>
-  </si>
-  <si>
-    <t>3.45 (2.64-4.45)</t>
-  </si>
-  <si>
-    <t>2.96 (2.55-3.41)</t>
-  </si>
-  <si>
-    <t>2.34 (1.70-3.14)</t>
-  </si>
-  <si>
-    <t>3.51 (2.32-5.11)</t>
-  </si>
-  <si>
-    <t>2.37 (1.13-4.35)</t>
-  </si>
-  <si>
-    <t>2.90 (2.10-3.91)</t>
-  </si>
-  <si>
-    <t>2.86 (2.63-3.12)</t>
-  </si>
-  <si>
-    <t>3.10 (2.86-3.36)</t>
-  </si>
-  <si>
-    <t>2.56 (2.24-2.92)</t>
-  </si>
-  <si>
-    <t>1.78 (1.56-2.02)</t>
-  </si>
-  <si>
-    <t>3.20 (2.71-3.74)</t>
-  </si>
-  <si>
-    <t>3.78 (3.21-4.42)</t>
-  </si>
-  <si>
-    <t>3.31 (2.50-4.28)</t>
-  </si>
-  <si>
-    <t>2.91 (2.51-3.36)</t>
-  </si>
-  <si>
-    <t>1.50 (1.00-2.17)</t>
-  </si>
-  <si>
-    <t>2.31 (1.37-3.65)</t>
-  </si>
-  <si>
-    <t>0.70 (0.14-2.05)</t>
-  </si>
-  <si>
-    <t>1.62 (1.04-2.40)</t>
-  </si>
-  <si>
     <t>0.51 (0.41-0.62)</t>
   </si>
   <si>
-    <t>0.33 (0.25-0.42)</t>
-  </si>
-  <si>
-    <t>0.27 (0.18-0.40)</t>
-  </si>
-  <si>
     <t>0.20 (0.13-0.29)</t>
   </si>
   <si>
@@ -384,15 +228,9 @@
     <t>0.14 (0.09-0.21)</t>
   </si>
   <si>
-    <t>0.06 (0.03-0.11)</t>
-  </si>
-  <si>
     <t>0.01 (0.00-0.06)</t>
   </si>
   <si>
-    <t>0.09 (0.05-0.15)</t>
-  </si>
-  <si>
     <t>0.02 (0.00-0.11)</t>
   </si>
   <si>
@@ -414,51 +252,21 @@
     <t>3.06 (2.81-3.33)</t>
   </si>
   <si>
-    <t>2.07 (1.87-2.28)</t>
-  </si>
-  <si>
-    <t>2.04 (1.81-2.30)</t>
-  </si>
-  <si>
     <t>1.92 (1.55-2.35)</t>
   </si>
   <si>
-    <t>0.65 (0.43-0.95)</t>
-  </si>
-  <si>
-    <t>0.83 (0.46-1.37)</t>
-  </si>
-  <si>
-    <t>0.76 (0.57-1.00)</t>
-  </si>
-  <si>
     <t>2.19 (1.56-2.98)</t>
   </si>
   <si>
-    <t>1.16 (0.53-2.21)</t>
-  </si>
-  <si>
-    <t>0.81 (0.42-1.41)</t>
-  </si>
-  <si>
     <t>0.60 (0.49-0.72)</t>
   </si>
   <si>
-    <t>0.42 (0.33-0.52)</t>
-  </si>
-  <si>
-    <t>0.90 (0.72-1.12)</t>
-  </si>
-  <si>
     <t>0.40 (0.30-0.52)</t>
   </si>
   <si>
     <t>0.12 (0.04-0.27)</t>
   </si>
   <si>
-    <t>0.16 (0.03-0.48)</t>
-  </si>
-  <si>
     <t>0.07 (0.02-0.17)</t>
   </si>
   <si>
@@ -471,9 +279,6 @@
     <t>0.02 (0.00-0.04)</t>
   </si>
   <si>
-    <t>0.02 (0.00-0.08)</t>
-  </si>
-  <si>
     <t>0.00 (0.00-0.03)</t>
   </si>
   <si>
@@ -492,12 +297,6 @@
     <t>0.06 (0.03-0.10)</t>
   </si>
   <si>
-    <t>0.13 (0.07-0.23)</t>
-  </si>
-  <si>
-    <t>0.15 (0.09-0.23)</t>
-  </si>
-  <si>
     <t>0.04 (0.00-0.15)</t>
   </si>
   <si>
@@ -507,9 +306,6 @@
     <t>0.11 (0.01-0.40)</t>
   </si>
   <si>
-    <t>0.06 (0.02-0.15)</t>
-  </si>
-  <si>
     <t>0.13 (0.02-0.48)</t>
   </si>
   <si>
@@ -519,105 +315,39 @@
     <t>0.09 (0.05-0.14)</t>
   </si>
   <si>
-    <t>0.12 (0.06-0.21)</t>
-  </si>
-  <si>
     <t>0.16 (0.10-0.24)</t>
   </si>
   <si>
     <t>0.02 (0.00-0.13)</t>
   </si>
   <si>
-    <t>0.12 (0.05-0.23)</t>
-  </si>
-  <si>
     <t>0.13 (0.00-0.72)</t>
   </si>
   <si>
     <t>0.20 (0.04-0.58)</t>
   </si>
   <si>
-    <t>0.04 (0.01-0.07)</t>
-  </si>
-  <si>
-    <t>0.07 (0.03-0.13)</t>
-  </si>
-  <si>
     <t>0.00 (0.00-0.07)</t>
   </si>
   <si>
     <t>1.78 (1.59-1.98)</t>
   </si>
   <si>
-    <t>1.18 (1.03-1.34)</t>
-  </si>
-  <si>
-    <t>2.01 (1.72-2.32)</t>
-  </si>
-  <si>
-    <t>2.10 (1.86-2.37)</t>
-  </si>
-  <si>
     <t>2.59 (2.16-3.09)</t>
   </si>
   <si>
-    <t>0.89 (0.63-1.22)</t>
-  </si>
-  <si>
-    <t>2.65 (1.94-3.52)</t>
-  </si>
-  <si>
-    <t>2.76 (2.38-3.20)</t>
-  </si>
-  <si>
     <t>1.97 (1.38-2.73)</t>
   </si>
   <si>
-    <t>0.91 (0.37-1.87)</t>
-  </si>
-  <si>
-    <t>0.94 (0.26-2.42)</t>
-  </si>
-  <si>
-    <t>2.54 (1.79-3.49)</t>
-  </si>
-  <si>
     <t>3.18 (2.93-3.45)</t>
   </si>
   <si>
-    <t>2.03 (1.83-2.24)</t>
-  </si>
-  <si>
-    <t>3.81 (3.41-4.24)</t>
-  </si>
-  <si>
-    <t>4.14 (3.79-4.52)</t>
-  </si>
-  <si>
     <t>3.44 (2.94-4.01)</t>
   </si>
   <si>
-    <t>1.60 (1.24-2.03)</t>
-  </si>
-  <si>
-    <t>3.82 (2.96-4.85)</t>
-  </si>
-  <si>
-    <t>4.77 (4.25-5.33)</t>
-  </si>
-  <si>
     <t>3.43 (2.63-4.39)</t>
   </si>
   <si>
-    <t>1.96 (1.10-3.23)</t>
-  </si>
-  <si>
-    <t>3.61 (2.02-5.95)</t>
-  </si>
-  <si>
-    <t>4.82 (3.75-6.11)</t>
-  </si>
-  <si>
     <t>0.92 (0.67-1.23)</t>
   </si>
   <si>
@@ -627,24 +357,12 @@
     <t>24.18 (23.39-24.98)</t>
   </si>
   <si>
-    <t>14.52 (13.95-15.12)</t>
-  </si>
-  <si>
-    <t>14.94 (14.07-15.84)</t>
-  </si>
-  <si>
     <t>11.24 (10.63-11.87)</t>
   </si>
   <si>
     <t>11.84 (10.85-12.90)</t>
   </si>
   <si>
-    <t>6.06 (5.33-6.87)</t>
-  </si>
-  <si>
-    <t>7.15 (5.94-8.53)</t>
-  </si>
-  <si>
     <t>5.82 (5.24-6.45)</t>
   </si>
   <si>
@@ -663,15 +381,6 @@
     <t>2.07 (1.87-2.29)</t>
   </si>
   <si>
-    <t>1.06 (0.92-1.22)</t>
-  </si>
-  <si>
-    <t>1.17 (0.96-1.42)</t>
-  </si>
-  <si>
-    <t>0.70 (0.57-0.86)</t>
-  </si>
-  <si>
     <t>0.30 (0.16-0.52)</t>
   </si>
   <si>
@@ -693,27 +402,9 @@
     <t>4.79 (4.47-5.12)</t>
   </si>
   <si>
-    <t>3.00 (2.76-3.25)</t>
-  </si>
-  <si>
-    <t>2.50 (2.18-2.85)</t>
-  </si>
-  <si>
-    <t>1.91 (1.69-2.17)</t>
-  </si>
-  <si>
     <t>2.09 (1.70-2.54)</t>
   </si>
   <si>
-    <t>1.20 (0.89-1.57)</t>
-  </si>
-  <si>
-    <t>0.83 (0.46-1.36)</t>
-  </si>
-  <si>
-    <t>0.72 (0.53-0.95)</t>
-  </si>
-  <si>
     <t>1.03 (0.62-1.60)</t>
   </si>
   <si>
@@ -723,36 +414,15 @@
     <t>4.69 (4.38-5.02)</t>
   </si>
   <si>
-    <t>3.05 (2.81-3.31)</t>
-  </si>
-  <si>
-    <t>2.85 (2.51-3.23)</t>
-  </si>
-  <si>
-    <t>1.93 (1.70-2.19)</t>
-  </si>
-  <si>
     <t>1.74 (1.39-2.16)</t>
   </si>
   <si>
-    <t>0.80 (0.55-1.11)</t>
-  </si>
-  <si>
     <t>0.99 (0.59-1.57)</t>
   </si>
   <si>
-    <t>0.80 (0.60-1.04)</t>
-  </si>
-  <si>
     <t>2.21 (1.58-3.01)</t>
   </si>
   <si>
-    <t>0.23 (0.01-1.30)</t>
-  </si>
-  <si>
-    <t>1.28 (0.77-1.99)</t>
-  </si>
-  <si>
     <t>Medicare No exposure</t>
   </si>
   <si>
@@ -1476,28 +1146,442 @@
     <t>0.32 (0.12-0.70)</t>
   </si>
   <si>
-    <t>0.66 (0.48-0.88)</t>
-  </si>
-  <si>
     <t>0.94 (0.55-1.51)</t>
   </si>
   <si>
-    <t>0.40 (0.23-0.63)</t>
-  </si>
-  <si>
     <t>0.63 (0.43-0.90)</t>
   </si>
   <si>
-    <t>1.24 (1.06-1.45)</t>
-  </si>
-  <si>
-    <t>1.53 (1.29-1.81)</t>
-  </si>
-  <si>
-    <t>1.49 (1.32-1.67)</t>
-  </si>
-  <si>
     <t>1.66 (1.48-1.86)</t>
+  </si>
+  <si>
+    <t>1.87 (1.68-2.08)</t>
+  </si>
+  <si>
+    <t>1.99 (1.71-2.32)</t>
+  </si>
+  <si>
+    <t>3.10 (2.80-3.43)</t>
+  </si>
+  <si>
+    <t>4.65 (4.01-5.36)</t>
+  </si>
+  <si>
+    <t>5.14 (4.12-6.33)</t>
+  </si>
+  <si>
+    <t>4.66 (4.14-5.23)</t>
+  </si>
+  <si>
+    <t>4.60 (3.19-6.43)</t>
+  </si>
+  <si>
+    <t>5.82 (3.69-8.73)</t>
+  </si>
+  <si>
+    <t>4.16 (3.16-5.38)</t>
+  </si>
+  <si>
+    <t>0.98 (0.84-1.13)</t>
+  </si>
+  <si>
+    <t>3.13 (2.77-3.54)</t>
+  </si>
+  <si>
+    <t>3.81 (3.47-4.17)</t>
+  </si>
+  <si>
+    <t>1.32 (1.00-1.72)</t>
+  </si>
+  <si>
+    <t>5.39 (4.35-6.60)</t>
+  </si>
+  <si>
+    <t>4.40 (3.90-4.96)</t>
+  </si>
+  <si>
+    <t>0.78 (0.29-1.70)</t>
+  </si>
+  <si>
+    <t>3.68 (2.06-6.06)</t>
+  </si>
+  <si>
+    <t>4.52 (3.48-5.77)</t>
+  </si>
+  <si>
+    <t>1.40 (1.23-1.57)</t>
+  </si>
+  <si>
+    <t>2.46 (2.14-2.82)</t>
+  </si>
+  <si>
+    <t>3.05 (2.75-3.37)</t>
+  </si>
+  <si>
+    <t>2.69 (1.99-3.57)</t>
+  </si>
+  <si>
+    <t>3.09 (2.67-3.55)</t>
+  </si>
+  <si>
+    <t>1.31 (0.63-2.41)</t>
+  </si>
+  <si>
+    <t>0.96 (0.26-2.45)</t>
+  </si>
+  <si>
+    <t>3.17 (2.32-4.22)</t>
+  </si>
+  <si>
+    <t>4.04 (3.75-4.34)</t>
+  </si>
+  <si>
+    <t>3.10 (2.85-3.37)</t>
+  </si>
+  <si>
+    <t>3.12 (2.75-3.51)</t>
+  </si>
+  <si>
+    <t>2.49 (2.23-2.78)</t>
+  </si>
+  <si>
+    <t>2.14 (1.74-2.59)</t>
+  </si>
+  <si>
+    <t>1.37 (1.04-1.77)</t>
+  </si>
+  <si>
+    <t>1.16 (0.72-1.78)</t>
+  </si>
+  <si>
+    <t>1.21 (0.96-1.51)</t>
+  </si>
+  <si>
+    <t>3.79 (2.94-4.81)</t>
+  </si>
+  <si>
+    <t>2.11 (1.20-3.42)</t>
+  </si>
+  <si>
+    <t>0.94 (0.26-2.41)</t>
+  </si>
+  <si>
+    <t>1.28 (0.77-2.00)</t>
+  </si>
+  <si>
+    <t>5.75 (5.40-6.11)</t>
+  </si>
+  <si>
+    <t>2.29 (2.07-2.51)</t>
+  </si>
+  <si>
+    <t>2.19 (1.89-2.52)</t>
+  </si>
+  <si>
+    <t>1.63 (1.42-1.87)</t>
+  </si>
+  <si>
+    <t>3.67 (3.15-4.26)</t>
+  </si>
+  <si>
+    <t>0.85 (0.60-1.18)</t>
+  </si>
+  <si>
+    <t>0.66 (0.34-1.15)</t>
+  </si>
+  <si>
+    <t>0.43 (0.29-0.62)</t>
+  </si>
+  <si>
+    <t>2.31 (1.67-3.12)</t>
+  </si>
+  <si>
+    <t>0.24 (0.01-1.31)</t>
+  </si>
+  <si>
+    <t>0.74 (0.37-1.32)</t>
+  </si>
+  <si>
+    <t>0.30 (0.23-0.39)</t>
+  </si>
+  <si>
+    <t>0.26 (0.17-0.39)</t>
+  </si>
+  <si>
+    <t>0.04 (0.02-0.08)</t>
+  </si>
+  <si>
+    <t>0.08 (0.04-0.15)</t>
+  </si>
+  <si>
+    <t>1.77 (1.59-1.97)</t>
+  </si>
+  <si>
+    <t>2.34 (2.03-2.68)</t>
+  </si>
+  <si>
+    <t>1.90 (1.67-2.15)</t>
+  </si>
+  <si>
+    <t>0.56 (0.36-0.84)</t>
+  </si>
+  <si>
+    <t>0.78 (0.43-1.31)</t>
+  </si>
+  <si>
+    <t>0.71 (0.52-0.94)</t>
+  </si>
+  <si>
+    <t>1.04 (0.45-2.05)</t>
+  </si>
+  <si>
+    <t>0.00 (0.00-0.87)</t>
+  </si>
+  <si>
+    <t>0.74 (0.37-1.33)</t>
+  </si>
+  <si>
+    <t>0.26 (0.20-0.35)</t>
+  </si>
+  <si>
+    <t>0.70 (0.53-0.89)</t>
+  </si>
+  <si>
+    <t>0.36 (0.26-0.47)</t>
+  </si>
+  <si>
+    <t>0.00 (0.00-0.04)</t>
+  </si>
+  <si>
+    <t>0.05 (0.02-0.09)</t>
+  </si>
+  <si>
+    <t>0.12 (0.06-0.22)</t>
+  </si>
+  <si>
+    <t>0.13 (0.08-0.21)</t>
+  </si>
+  <si>
+    <t>0.11 (0.05-0.20)</t>
+  </si>
+  <si>
+    <t>0.10 (0.04-0.21)</t>
+  </si>
+  <si>
+    <t>0.03 (0.01-0.06)</t>
+  </si>
+  <si>
+    <t>0.05 (0.02-0.11)</t>
+  </si>
+  <si>
+    <t>0.82 (0.70-0.96)</t>
+  </si>
+  <si>
+    <t>1.36 (1.12-1.62)</t>
+  </si>
+  <si>
+    <t>1.60 (1.39-1.83)</t>
+  </si>
+  <si>
+    <t>0.61 (0.40-0.90)</t>
+  </si>
+  <si>
+    <t>2.31 (1.66-3.14)</t>
+  </si>
+  <si>
+    <t>2.18 (1.84-2.57)</t>
+  </si>
+  <si>
+    <t>0.65 (0.21-1.53)</t>
+  </si>
+  <si>
+    <t>2.19 (1.50-3.10)</t>
+  </si>
+  <si>
+    <t>0.98 (0.85-1.13)</t>
+  </si>
+  <si>
+    <t>1.89 (1.61-2.20)</t>
+  </si>
+  <si>
+    <t>2.48 (2.21-2.77)</t>
+  </si>
+  <si>
+    <t>0.88 (0.62-1.21)</t>
+  </si>
+  <si>
+    <t>2.35 (1.69-3.19)</t>
+  </si>
+  <si>
+    <t>3.61 (3.15-4.10)</t>
+  </si>
+  <si>
+    <t>1.71 (0.91-2.92)</t>
+  </si>
+  <si>
+    <t>1.93 (0.83-3.81)</t>
+  </si>
+  <si>
+    <t>3.79 (2.85-4.94)</t>
+  </si>
+  <si>
+    <t>1.43 (1.27-1.61)</t>
+  </si>
+  <si>
+    <t>1.46 (1.22-1.73)</t>
+  </si>
+  <si>
+    <t>1.19 (1.02-1.40)</t>
+  </si>
+  <si>
+    <t>0.40 (0.23-0.64)</t>
+  </si>
+  <si>
+    <t>0.61 (0.44-0.83)</t>
+  </si>
+  <si>
+    <t>14.59 (14.01-15.18)</t>
+  </si>
+  <si>
+    <t>15.30 (14.43-16.21)</t>
+  </si>
+  <si>
+    <t>6.11 (5.38-6.91)</t>
+  </si>
+  <si>
+    <t>7.26 (6.04-8.64)</t>
+  </si>
+  <si>
+    <t>1.02 (0.89-1.17)</t>
+  </si>
+  <si>
+    <t>1.18 (0.96-1.42)</t>
+  </si>
+  <si>
+    <t>0.69 (0.55-0.84)</t>
+  </si>
+  <si>
+    <t>2.48 (2.26-2.72)</t>
+  </si>
+  <si>
+    <t>2.26 (1.96-2.60)</t>
+  </si>
+  <si>
+    <t>1.76 (1.54-2.01)</t>
+  </si>
+  <si>
+    <t>1.06 (0.77-1.42)</t>
+  </si>
+  <si>
+    <t>0.72 (0.38-1.23)</t>
+  </si>
+  <si>
+    <t>0.65 (0.47-0.87)</t>
+  </si>
+  <si>
+    <t>2.48 (2.16-2.84)</t>
+  </si>
+  <si>
+    <t>1.68 (1.47-1.92)</t>
+  </si>
+  <si>
+    <t>0.71 (0.48-1.01)</t>
+  </si>
+  <si>
+    <t>0.68 (0.49-0.91)</t>
+  </si>
+  <si>
+    <t>1.08 (0.62-1.75)</t>
+  </si>
+  <si>
+    <t>9.38 (8.92-9.85)</t>
+  </si>
+  <si>
+    <t>4.40 (4.10-4.73)</t>
+  </si>
+  <si>
+    <t>4.29 (3.86-4.76)</t>
+  </si>
+  <si>
+    <t>2.92 (2.63-3.23)</t>
+  </si>
+  <si>
+    <t>4.95 (4.33-5.63)</t>
+  </si>
+  <si>
+    <t>2.66 (2.19-3.21)</t>
+  </si>
+  <si>
+    <t>3.56 (2.73-4.57)</t>
+  </si>
+  <si>
+    <t>1.63 (1.34-1.97)</t>
+  </si>
+  <si>
+    <t>5.42 (4.38-6.63)</t>
+  </si>
+  <si>
+    <t>2.25 (1.31-3.61)</t>
+  </si>
+  <si>
+    <t>1.67 (0.67-3.44)</t>
+  </si>
+  <si>
+    <t>2.12 (1.44-3.00)</t>
+  </si>
+  <si>
+    <t>3.19 (2.94-3.46)</t>
+  </si>
+  <si>
+    <t>2.61 (2.39-2.85)</t>
+  </si>
+  <si>
+    <t>2.22 (1.92-2.55)</t>
+  </si>
+  <si>
+    <t>1.86 (1.64-2.11)</t>
+  </si>
+  <si>
+    <t>1.00 (0.74-1.33)</t>
+  </si>
+  <si>
+    <t>1.01 (0.73-1.36)</t>
+  </si>
+  <si>
+    <t>0.87 (0.66-1.13)</t>
+  </si>
+  <si>
+    <t>1.19 (0.75-1.81)</t>
+  </si>
+  <si>
+    <t>0.52 (0.14-1.32)</t>
+  </si>
+  <si>
+    <t>0.71 (0.15-2.07)</t>
+  </si>
+  <si>
+    <t>1.47 (1.30-1.65)</t>
+  </si>
+  <si>
+    <t>0.60 (0.49-0.71)</t>
+  </si>
+  <si>
+    <t>0.82 (0.65-1.03)</t>
+  </si>
+  <si>
+    <t>0.84 (0.60-1.14)</t>
+  </si>
+  <si>
+    <t>0.77 (0.42-1.30)</t>
+  </si>
+  <si>
+    <t>0.16 (0.08-0.29)</t>
+  </si>
+  <si>
+    <t>0.81 (0.45-1.33)</t>
+  </si>
+  <si>
+    <t>0.23 (0.01-1.31)</t>
   </si>
 </sst>
 </file>
@@ -2186,8 +2270,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N21" totalsRowShown="0">
-  <autoFilter ref="A1:N21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N24" totalsRowShown="0">
+  <autoFilter ref="A1:N24"/>
   <tableColumns count="14">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
@@ -2516,13 +2600,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>454</v>
+        <v>344</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>452</v>
+        <v>342</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>451</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,13 +2640,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,13 +2660,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>447</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>446</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,13 +2680,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>445</v>
+        <v>335</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>421</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2616,13 +2700,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>442</v>
+        <v>332</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>441</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,13 +2720,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>438</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,13 +2740,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>437</v>
+        <v>327</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>436</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,13 +2760,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>435</v>
+        <v>325</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>434</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,13 +2780,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>433</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,13 +2800,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,13 +2820,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>427</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2756,13 +2840,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>432</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,13 +2860,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,13 +2880,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2816,13 +2900,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>428</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,13 +2920,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>427</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,13 +2940,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>426</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,13 +2960,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>425</v>
+        <v>315</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,13 +2980,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>422</v>
+        <v>312</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>421</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,13 +3000,13 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>419</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,13 +3020,13 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>418</v>
+        <v>308</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>417</v>
+        <v>307</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>416</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,13 +3040,13 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>414</v>
+        <v>304</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>413</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3016,10 +3100,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>460</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,10 +3117,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>479</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,10 +3134,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>478</v>
+        <v>368</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>477</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3067,10 +3151,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>476</v>
+        <v>366</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>475</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,10 +3168,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>473</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3101,10 +3185,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>457</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3118,10 +3202,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>472</v>
+        <v>362</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>471</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,10 +3219,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>466</v>
+        <v>356</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>470</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>468</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3169,10 +3253,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>467</v>
+        <v>357</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>466</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,10 +3270,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,10 +3287,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3220,10 +3304,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3237,10 +3321,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,10 +3338,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,10 +3355,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>465</v>
+        <v>355</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3288,10 +3372,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,10 +3389,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,10 +3406,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>462</v>
+        <v>352</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>461</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,10 +3423,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>459</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3356,10 +3440,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>457</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3373,10 +3457,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>456</v>
+        <v>346</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,10 +3474,10 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3446,10 +3530,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3458,10 +3542,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -3470,10 +3554,10 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3487,40 +3571,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>378</v>
+        <v>268</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>411</v>
+        <v>301</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3546,28 +3630,28 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>407</v>
+        <v>297</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>406</v>
+        <v>296</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>405</v>
+        <v>295</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>404</v>
+        <v>294</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3581,40 +3665,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>397</v>
+        <v>287</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>395</v>
+        <v>285</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>394</v>
+        <v>284</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>393</v>
+        <v>283</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>392</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3628,40 +3712,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>391</v>
+        <v>281</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>387</v>
+        <v>277</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>386</v>
+        <v>276</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3675,40 +3759,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>383</v>
+        <v>273</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>379</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3722,40 +3806,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>378</v>
+        <v>268</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3769,40 +3853,40 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>368</v>
+        <v>258</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>364</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3816,40 +3900,40 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>362</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3863,40 +3947,40 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3910,40 +3994,40 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3966,31 +4050,31 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4004,40 +4088,40 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4051,40 +4135,40 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4107,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -4119,19 +4203,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4154,31 +4238,31 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4192,40 +4276,40 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4248,31 +4332,31 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4286,40 +4370,40 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4333,10 +4417,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4345,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -4357,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -4380,10 +4464,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4392,10 +4476,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -4404,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -4427,40 +4511,40 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4474,40 +4558,40 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -4521,40 +4605,40 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +4651,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4603,10 +4687,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -4615,10 +4699,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -4627,889 +4711,1021 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>519</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>240</v>
+        <v>518</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>239</v>
+        <v>517</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>236</v>
+        <v>515</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>234</v>
+        <v>514</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>233</v>
+        <v>513</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>232</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>511</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>510</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>509</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>229</v>
+        <v>508</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>507</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>226</v>
+        <v>506</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>225</v>
+        <v>505</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>224</v>
+        <v>504</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>223</v>
+        <v>503</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>222</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>501</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>220</v>
+        <v>499</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>219</v>
+        <v>498</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>218</v>
+        <v>497</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>217</v>
+        <v>496</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>216</v>
+        <v>495</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>198</v>
+        <v>494</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>215</v>
+        <v>493</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>214</v>
+        <v>492</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>213</v>
+        <v>491</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>212</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>489</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>207</v>
+        <v>488</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>205</v>
+        <v>487</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>486</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>481</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>482</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>484</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>491</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>189</v>
+        <v>478</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>188</v>
+        <v>477</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>187</v>
+        <v>476</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>180</v>
+        <v>475</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>176</v>
+        <v>473</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>175</v>
+        <v>472</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>371</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>372</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>126</v>
+        <v>471</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>151</v>
+        <v>374</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>124</v>
+        <v>470</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>149</v>
+        <v>468</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>171</v>
+        <v>467</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>155</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>466</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>465</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>168</v>
+        <v>463</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>151</v>
+        <v>462</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>167</v>
+        <v>461</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>165</v>
+        <v>459</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>164</v>
+        <v>458</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>457</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>160</v>
+        <v>454</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>157</v>
+        <v>452</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>156</v>
+        <v>451</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>448</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>131</v>
+        <v>445</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>97</v>
+        <v>444</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>130</v>
+        <v>443</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>121</v>
+        <v>442</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>110</v>
+        <v>441</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>438</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>437</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>436</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>102</v>
+        <v>435</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>96</v>
+        <v>430</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>86</v>
+        <v>429</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>424</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>423</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>422</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>65</v>
+        <v>421</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>64</v>
+        <v>420</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>419</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>61</v>
+        <v>417</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>60</v>
+        <v>416</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>59</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
